--- a/teaching/traditional_assets/database/data/jordan/jordan_electrical_equipment.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_electrical_equipment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="ase_ucic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +593,37 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.126</v>
+        <v>-0.07285999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.235</v>
       </c>
       <c r="G2">
-        <v>-0.00170484485911782</v>
+        <v>0.02354014598540146</v>
       </c>
       <c r="H2">
-        <v>-0.00170484485911782</v>
+        <v>0.02354014598540146</v>
       </c>
       <c r="I2">
-        <v>-0.09072874368432472</v>
+        <v>-0.0516058394160584</v>
       </c>
       <c r="J2">
-        <v>-0.09072874368432472</v>
+        <v>-0.0516058394160584</v>
       </c>
       <c r="K2">
-        <v>-7.844</v>
+        <v>-3.05</v>
       </c>
       <c r="L2">
-        <v>-0.1215709370447289</v>
+        <v>-0.05565693430656934</v>
       </c>
       <c r="M2">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2870521172638436</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.8987761346251911</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +635,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>7.05</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.83</v>
+        <v>2.199</v>
       </c>
       <c r="V2">
-        <v>0.07451140065146579</v>
+        <v>0.08603286384976525</v>
       </c>
       <c r="W2">
-        <v>-0.09921874999999999</v>
+        <v>-0.08914879760013421</v>
       </c>
       <c r="X2">
-        <v>0.3083952507280646</v>
+        <v>0.202155057937521</v>
       </c>
       <c r="Y2">
-        <v>-0.4076140007280646</v>
+        <v>-0.2913038555376552</v>
       </c>
       <c r="Z2">
-        <v>0.589220485096435</v>
+        <v>0.6203305410912383</v>
       </c>
       <c r="AA2">
-        <v>-0.06682242990654205</v>
+        <v>-0.03894280601485255</v>
       </c>
       <c r="AB2">
-        <v>0.1405192873424961</v>
+        <v>0.1164138473103102</v>
       </c>
       <c r="AC2">
-        <v>-0.2007810019001441</v>
+        <v>-0.1553566533251627</v>
       </c>
       <c r="AD2">
-        <v>26.75</v>
+        <v>23</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>26.75</v>
+        <v>23</v>
       </c>
       <c r="AG2">
-        <v>24.92</v>
+        <v>20.801</v>
       </c>
       <c r="AH2">
-        <v>0.5213408692262717</v>
+        <v>0.4736408566721581</v>
       </c>
       <c r="AI2">
-        <v>0.271960146400976</v>
+        <v>0.260475651189128</v>
       </c>
       <c r="AJ2">
-        <v>0.5036378334680679</v>
+        <v>0.4486745324734152</v>
       </c>
       <c r="AK2">
-        <v>0.2581580855692531</v>
+        <v>0.2415883671502073</v>
       </c>
       <c r="AL2">
-        <v>2.09</v>
+        <v>1.023</v>
       </c>
       <c r="AM2">
-        <v>2.087</v>
+        <v>1.023</v>
       </c>
       <c r="AN2">
-        <v>-10.09815024537561</v>
+        <v>255.5555555555547</v>
       </c>
       <c r="AO2">
-        <v>-2.800956937799043</v>
+        <v>-2.764418377321602</v>
       </c>
       <c r="AP2">
-        <v>-9.407323518308797</v>
+        <v>231.1222222222215</v>
       </c>
       <c r="AQ2">
-        <v>-2.804983229516052</v>
+        <v>-2.764418377321602</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +715,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>National Cable And Wire Manufacturing Company (ASE:WIRE)</t>
+          <t>United Cable Industries Company PLC (ASE:UCIC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,25 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.126</v>
+        <v>0.00128</v>
+      </c>
+      <c r="E3">
+        <v>0.235</v>
       </c>
       <c r="G3">
-        <v>0.03719512195121952</v>
+        <v>0.03205417607223476</v>
       </c>
       <c r="H3">
-        <v>0.03719512195121952</v>
+        <v>0.03205417607223476</v>
       </c>
       <c r="I3">
-        <v>-0.05036585365853659</v>
+        <v>0.009977426636568849</v>
       </c>
       <c r="J3">
-        <v>-0.05036585365853659</v>
+        <v>0.009977426636568849</v>
       </c>
       <c r="K3">
-        <v>-1.9</v>
+        <v>1.53</v>
       </c>
       <c r="L3">
-        <v>-0.1158536585365854</v>
+        <v>0.0345372460496614</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,79 +763,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.85</v>
+        <v>1.64</v>
       </c>
       <c r="V3">
-        <v>0.1949541284403669</v>
+        <v>0.08497409326424869</v>
       </c>
       <c r="W3">
-        <v>-0.07723577235772357</v>
+        <v>0.03276231263383297</v>
       </c>
       <c r="X3">
-        <v>0.4784354773740499</v>
+        <v>0.1479612528281374</v>
       </c>
       <c r="Y3">
-        <v>-0.5556712497317735</v>
+        <v>-0.1151989401943044</v>
       </c>
       <c r="Z3">
-        <v>0.4268943436499467</v>
+        <v>0.8756671278908874</v>
       </c>
       <c r="AA3">
-        <v>-0.02150089803993024</v>
+        <v>0.008736904526586282</v>
       </c>
       <c r="AB3">
-        <v>0.1450264254014071</v>
+        <v>0.1150940894768813</v>
       </c>
       <c r="AC3">
-        <v>-0.1665273234413374</v>
+        <v>-0.106357184950295</v>
       </c>
       <c r="AD3">
-        <v>17.2</v>
+        <v>10.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>17.2</v>
+        <v>10.7</v>
       </c>
       <c r="AG3">
-        <v>16.35</v>
+        <v>9.059999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.7977736549165121</v>
+        <v>0.3566666666666666</v>
       </c>
       <c r="AI3">
-        <v>0.4376590330788804</v>
+        <v>0.1816638370118845</v>
       </c>
       <c r="AJ3">
-        <v>0.7894736842105263</v>
+        <v>0.3194640338504936</v>
       </c>
       <c r="AK3">
-        <v>0.4252275682704811</v>
+        <v>0.1582256374432413</v>
       </c>
       <c r="AL3">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="AM3">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="AN3">
-        <v>41.05011933174224</v>
+        <v>4.908256880733944</v>
       </c>
       <c r="AO3">
-        <v>-0.7648148148148147</v>
+        <v>1.262857142857143</v>
       </c>
       <c r="AP3">
-        <v>39.02147971360382</v>
+        <v>4.155963302752292</v>
       </c>
       <c r="AQ3">
-        <v>-0.7648148148148147</v>
+        <v>1.262857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +846,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>United Cable Industries Company PLC (ASE:UCIC)</t>
+          <t>National Cable And Wire Manufacturing Company (ASE:WIRE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,34 +855,34 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0369</v>
+        <v>-0.147</v>
       </c>
       <c r="G4">
-        <v>-0.001949685534591195</v>
+        <v>-0.01238095238095238</v>
       </c>
       <c r="H4">
-        <v>-0.001949685534591195</v>
+        <v>-0.01238095238095238</v>
       </c>
       <c r="I4">
-        <v>-0.08993710691823899</v>
+        <v>-0.3114285714285714</v>
       </c>
       <c r="J4">
-        <v>-0.08993710691823899</v>
+        <v>-0.3114285714285714</v>
       </c>
       <c r="K4">
-        <v>-5.08</v>
+        <v>-4.58</v>
       </c>
       <c r="L4">
-        <v>-0.1064989517819706</v>
+        <v>-0.4361904761904762</v>
       </c>
       <c r="M4">
-        <v>7.05</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-1.387795275590551</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,207 +894,8794 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>7.05</v>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.08929712460063899</v>
+      </c>
+      <c r="W4">
+        <v>-0.2110599078341014</v>
+      </c>
+      <c r="X4">
+        <v>0.2563488630469046</v>
+      </c>
+      <c r="Y4">
+        <v>-0.467408770881006</v>
+      </c>
+      <c r="Z4">
+        <v>0.2781456953642384</v>
+      </c>
+      <c r="AA4">
+        <v>-0.08662251655629138</v>
+      </c>
+      <c r="AB4">
+        <v>0.117733605143739</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2043561217000304</v>
+      </c>
+      <c r="AD4">
+        <v>12.3</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>12.3</v>
+      </c>
+      <c r="AG4">
+        <v>11.741</v>
+      </c>
+      <c r="AH4">
+        <v>0.6627155172413792</v>
+      </c>
+      <c r="AI4">
+        <v>0.4183673469387755</v>
+      </c>
+      <c r="AJ4">
+        <v>0.6522415421365481</v>
+      </c>
+      <c r="AK4">
+        <v>0.4070940674733886</v>
+      </c>
+      <c r="AL4">
+        <v>0.673</v>
+      </c>
+      <c r="AM4">
+        <v>0.673</v>
+      </c>
+      <c r="AN4">
+        <v>-5.885167464114834</v>
+      </c>
+      <c r="AO4">
+        <v>-4.858841010401188</v>
+      </c>
+      <c r="AP4">
+        <v>-5.617703349282298</v>
+      </c>
+      <c r="AQ4">
+        <v>-4.858841010401188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>United Cable Industries Company PLC (ASE:UCIC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASE:UCIC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electrical Equipment</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.356666666666667</v>
+      </c>
+      <c r="F2">
+        <v>0.14</v>
+      </c>
+      <c r="G2">
+        <v>19.3</v>
+      </c>
+      <c r="H2">
+        <v>29.1568331871195</v>
+      </c>
+      <c r="I2">
+        <v>28.36</v>
+      </c>
+      <c r="J2">
+        <v>31.7168331871195</v>
+      </c>
+      <c r="K2">
+        <v>10.7</v>
+      </c>
+      <c r="L2">
+        <v>4.2</v>
+      </c>
+      <c r="M2">
+        <v>0.115094089476881</v>
+      </c>
+      <c r="N2">
+        <v>0.103897098009861</v>
+      </c>
+      <c r="O2">
+        <v>0.0558103275442418</v>
+      </c>
+      <c r="P2">
+        <v>0.01808</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.147961252828137</v>
+      </c>
+      <c r="T2">
+        <v>0.11786732326728</v>
+      </c>
+      <c r="U2">
+        <v>1.52712284273117</v>
+      </c>
+      <c r="V2">
+        <v>1.1956883120127</v>
+      </c>
+      <c r="W2">
+        <v>4.656552886641382</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>19.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.09079901691480829</v>
+      </c>
+      <c r="AC2">
+        <v>0.06976290943030221</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2.18</v>
+      </c>
+      <c r="AH2">
+        <v>1.738</v>
+      </c>
+      <c r="AI2">
+        <v>1.813000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>10.7</v>
+      </c>
+      <c r="AK2">
+        <v>10.7</v>
+      </c>
+      <c r="AL2">
+        <v>0.35</v>
+      </c>
+      <c r="AM2">
+        <v>10.7</v>
+      </c>
+      <c r="AN2">
+        <v>1.64</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1053575082405977</v>
+      </c>
+      <c r="C2">
+        <v>32.87462634539066</v>
+      </c>
+      <c r="D2">
+        <v>31.23462634539066</v>
+      </c>
+      <c r="E2">
+        <v>-10.7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.64</v>
+      </c>
+      <c r="H2">
+        <v>19.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.18</v>
+      </c>
+      <c r="K2">
+        <v>1.738</v>
+      </c>
+      <c r="L2">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.08839999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.3536</v>
+      </c>
+      <c r="Q2">
+        <v>2.0916</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1053575082405977</v>
+      </c>
+      <c r="T2">
+        <v>1.05791352708943</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1052019932241165</v>
+      </c>
+      <c r="C3">
+        <v>32.62527652759841</v>
+      </c>
+      <c r="D3">
+        <v>31.28527652759841</v>
+      </c>
+      <c r="E3">
+        <v>-10.4</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>1.64</v>
+      </c>
+      <c r="H3">
+        <v>19.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.18</v>
+      </c>
+      <c r="K3">
+        <v>1.738</v>
+      </c>
+      <c r="L3">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.00486</v>
+      </c>
+      <c r="N3">
+        <v>0.43714</v>
+      </c>
+      <c r="O3">
+        <v>0.08742800000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.349712</v>
+      </c>
+      <c r="Q3">
+        <v>2.087712</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1061337305294106</v>
+      </c>
+      <c r="T3">
+        <v>1.066462323267931</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>90.94650205761317</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1050464782076353</v>
+      </c>
+      <c r="C4">
+        <v>32.37609124565266</v>
+      </c>
+      <c r="D4">
+        <v>31.33609124565266</v>
+      </c>
+      <c r="E4">
+        <v>-10.1</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>1.64</v>
+      </c>
+      <c r="H4">
+        <v>19.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.18</v>
+      </c>
+      <c r="K4">
+        <v>1.738</v>
+      </c>
+      <c r="L4">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.009719999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.4322799999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.08645599999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.345824</v>
+      </c>
+      <c r="Q4">
+        <v>2.083824</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1069257940894238</v>
       </c>
       <c r="T4">
+        <v>1.075185584674564</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>45.47325102880658</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1048909631911541</v>
+      </c>
+      <c r="C5">
+        <v>32.12707130259359</v>
+      </c>
+      <c r="D5">
+        <v>31.38707130259359</v>
+      </c>
+      <c r="E5">
+        <v>-9.799999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.64</v>
+      </c>
+      <c r="H5">
+        <v>19.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2.18</v>
+      </c>
+      <c r="K5">
+        <v>1.738</v>
+      </c>
+      <c r="L5">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.01458</v>
+      </c>
+      <c r="N5">
+        <v>0.42742</v>
+      </c>
+      <c r="O5">
+        <v>0.085484</v>
+      </c>
+      <c r="P5">
+        <v>0.341936</v>
+      </c>
+      <c r="Q5">
+        <v>2.079936</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1077341888568599</v>
+      </c>
+      <c r="T5">
+        <v>1.084088707141127</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>30.31550068587106</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1047354481746729</v>
+      </c>
+      <c r="C6">
+        <v>31.87821750669572</v>
+      </c>
+      <c r="D6">
+        <v>31.43821750669571</v>
+      </c>
+      <c r="E6">
+        <v>-9.5</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1.64</v>
+      </c>
+      <c r="H6">
+        <v>19.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2.18</v>
+      </c>
+      <c r="K6">
+        <v>1.738</v>
+      </c>
+      <c r="L6">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.01944</v>
+      </c>
+      <c r="N6">
+        <v>0.4225599999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.08451199999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.338048</v>
+      </c>
+      <c r="Q6">
+        <v>2.076048</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1085594251819509</v>
+      </c>
+      <c r="T6">
+        <v>1.093177311325745</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>22.73662551440329</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1045799331581917</v>
+      </c>
+      <c r="C7">
+        <v>31.62953067151056</v>
+      </c>
+      <c r="D7">
+        <v>31.48953067151056</v>
+      </c>
+      <c r="E7">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <v>1.64</v>
+      </c>
+      <c r="H7">
+        <v>19.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2.18</v>
+      </c>
+      <c r="K7">
+        <v>1.738</v>
+      </c>
+      <c r="L7">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.0243</v>
+      </c>
+      <c r="N7">
+        <v>0.4177</v>
+      </c>
+      <c r="O7">
+        <v>0.08354</v>
+      </c>
+      <c r="P7">
+        <v>0.33416</v>
+      </c>
+      <c r="Q7">
+        <v>2.07216</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1094020349033597</v>
+      </c>
+      <c r="T7">
+        <v>1.102457254545827</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>18.18930041152263</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1044244181417105</v>
+      </c>
+      <c r="C8">
+        <v>31.38101161590981</v>
+      </c>
+      <c r="D8">
+        <v>31.54101161590981</v>
+      </c>
+      <c r="E8">
+        <v>-8.899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="G8">
+        <v>1.64</v>
+      </c>
+      <c r="H8">
+        <v>19.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2.18</v>
+      </c>
+      <c r="K8">
+        <v>1.738</v>
+      </c>
+      <c r="L8">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.02915999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.4128399999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.08256799999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.330272</v>
+      </c>
+      <c r="Q8">
+        <v>2.068272</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1102625724911814</v>
+      </c>
+      <c r="T8">
+        <v>1.111934643366337</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>15.15775034293553</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1043585031252293</v>
+      </c>
+      <c r="C9">
+        <v>31.10288263462085</v>
+      </c>
+      <c r="D9">
+        <v>31.56288263462086</v>
+      </c>
+      <c r="E9">
+        <v>-8.6</v>
+      </c>
+      <c r="F9">
+        <v>2.1</v>
+      </c>
+      <c r="G9">
+        <v>1.64</v>
+      </c>
+      <c r="H9">
+        <v>19.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2.18</v>
+      </c>
+      <c r="K9">
+        <v>1.738</v>
+      </c>
+      <c r="L9">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.03738</v>
+      </c>
+      <c r="N9">
+        <v>0.4046199999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.080924</v>
+      </c>
+      <c r="P9">
+        <v>0.3236959999999999</v>
+      </c>
+      <c r="Q9">
+        <v>2.061696</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1111416162636874</v>
+      </c>
+      <c r="T9">
+        <v>1.121615847000192</v>
+      </c>
+      <c r="U9">
+        <v>0.0178</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01424</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>11.82450508293205</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1043565881087481</v>
+      </c>
+      <c r="C10">
+        <v>30.80351850259846</v>
+      </c>
+      <c r="D10">
+        <v>31.56351850259846</v>
+      </c>
+      <c r="E10">
+        <v>-8.299999999999999</v>
+      </c>
+      <c r="F10">
+        <v>2.4</v>
+      </c>
+      <c r="G10">
+        <v>1.64</v>
+      </c>
+      <c r="H10">
+        <v>19.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2.18</v>
+      </c>
+      <c r="K10">
+        <v>1.738</v>
+      </c>
+      <c r="L10">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.04799999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.394</v>
+      </c>
+      <c r="O10">
+        <v>0.0788</v>
+      </c>
+      <c r="P10">
+        <v>0.3152</v>
+      </c>
+      <c r="Q10">
+        <v>2.0532</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1120397696834219</v>
+      </c>
+      <c r="T10">
+        <v>1.131507511582608</v>
+      </c>
+      <c r="U10">
+        <v>0.02</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.016</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1042314730922669</v>
+      </c>
+      <c r="C11">
+        <v>30.5451176689131</v>
+      </c>
+      <c r="D11">
+        <v>31.6051176689131</v>
+      </c>
+      <c r="E11">
+        <v>-8</v>
+      </c>
+      <c r="F11">
+        <v>2.7</v>
+      </c>
+      <c r="G11">
+        <v>1.64</v>
+      </c>
+      <c r="H11">
+        <v>19.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.18</v>
+      </c>
+      <c r="K11">
+        <v>1.738</v>
+      </c>
+      <c r="L11">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.05399999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.388</v>
+      </c>
+      <c r="O11">
+        <v>0.0776</v>
+      </c>
+      <c r="P11">
+        <v>0.3104</v>
+      </c>
+      <c r="Q11">
+        <v>2.0484</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1129576627387548</v>
+      </c>
+      <c r="T11">
+        <v>1.141616575386616</v>
+      </c>
+      <c r="U11">
+        <v>0.02</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.016</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>8.185185185185187</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1041943580757857</v>
+      </c>
+      <c r="C12">
+        <v>30.25747904093728</v>
+      </c>
+      <c r="D12">
+        <v>31.61747904093728</v>
+      </c>
+      <c r="E12">
+        <v>-7.699999999999999</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1.64</v>
+      </c>
+      <c r="H12">
+        <v>19.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.18</v>
+      </c>
+      <c r="K12">
+        <v>1.738</v>
+      </c>
+      <c r="L12">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.0633</v>
+      </c>
+      <c r="N12">
+        <v>0.3786999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.07573999999999999</v>
+      </c>
+      <c r="P12">
+        <v>0.30296</v>
+      </c>
+      <c r="Q12">
+        <v>2.04096</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1138959534175397</v>
+      </c>
+      <c r="T12">
+        <v>1.151950285052935</v>
+      </c>
+      <c r="U12">
+        <v>0.0211</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01688</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>6.982622432859399</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1042100430593045</v>
+      </c>
+      <c r="C13">
+        <v>29.95225388644701</v>
+      </c>
+      <c r="D13">
+        <v>31.61225388644701</v>
+      </c>
+      <c r="E13">
+        <v>-7.399999999999999</v>
+      </c>
+      <c r="F13">
+        <v>3.3</v>
+      </c>
+      <c r="G13">
+        <v>1.64</v>
+      </c>
+      <c r="H13">
+        <v>19.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.18</v>
+      </c>
+      <c r="K13">
+        <v>1.738</v>
+      </c>
+      <c r="L13">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.07457999999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.36742</v>
+      </c>
+      <c r="O13">
+        <v>0.07348399999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.293936</v>
+      </c>
+      <c r="Q13">
+        <v>2.031936</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1148553292801174</v>
+      </c>
+      <c r="T13">
+        <v>1.162516212914003</v>
+      </c>
+      <c r="U13">
+        <v>0.0226</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01808</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>5.926521855725396</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1041057280428233</v>
+      </c>
+      <c r="C14">
+        <v>29.68703694073339</v>
+      </c>
+      <c r="D14">
+        <v>31.64703694073339</v>
+      </c>
+      <c r="E14">
+        <v>-7.1</v>
+      </c>
+      <c r="F14">
+        <v>3.6</v>
+      </c>
+      <c r="G14">
+        <v>1.64</v>
+      </c>
+      <c r="H14">
+        <v>19.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.18</v>
+      </c>
+      <c r="K14">
+        <v>1.738</v>
+      </c>
+      <c r="L14">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.08135999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.36064</v>
+      </c>
+      <c r="O14">
+        <v>0.072128</v>
+      </c>
+      <c r="P14">
+        <v>0.288512</v>
+      </c>
+      <c r="Q14">
+        <v>2.026512</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.115836509139572</v>
+      </c>
+      <c r="T14">
+        <v>1.173322275499186</v>
+      </c>
+      <c r="U14">
+        <v>0.0226</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01808</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>5.432645034414946</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1040014130263421</v>
+      </c>
+      <c r="C15">
+        <v>29.42189662312414</v>
+      </c>
+      <c r="D15">
+        <v>31.68189662312414</v>
+      </c>
+      <c r="E15">
+        <v>-6.799999999999999</v>
+      </c>
+      <c r="F15">
+        <v>3.9</v>
+      </c>
+      <c r="G15">
+        <v>1.64</v>
+      </c>
+      <c r="H15">
+        <v>19.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.18</v>
+      </c>
+      <c r="K15">
+        <v>1.738</v>
+      </c>
+      <c r="L15">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.08814</v>
+      </c>
+      <c r="N15">
+        <v>0.35386</v>
+      </c>
+      <c r="O15">
+        <v>0.07077199999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.283088</v>
+      </c>
+      <c r="Q15">
+        <v>2.021088</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1168402448578645</v>
+      </c>
+      <c r="T15">
+        <v>1.184376753316213</v>
+      </c>
+      <c r="U15">
+        <v>0.0226</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01808</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>5.014749262536872</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1038970980098609</v>
+      </c>
+      <c r="C16">
+        <v>29.1568331871195</v>
+      </c>
+      <c r="D16">
+        <v>31.7168331871195</v>
+      </c>
+      <c r="E16">
+        <v>-6.499999999999999</v>
+      </c>
+      <c r="F16">
+        <v>4.2</v>
+      </c>
+      <c r="G16">
+        <v>1.64</v>
+      </c>
+      <c r="H16">
+        <v>19.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2.18</v>
+      </c>
+      <c r="K16">
+        <v>1.738</v>
+      </c>
+      <c r="L16">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.09492</v>
+      </c>
+      <c r="N16">
+        <v>0.3470799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.06941599999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.277664</v>
+      </c>
+      <c r="Q16">
+        <v>2.015664</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1178673232672802</v>
+      </c>
+      <c r="T16">
+        <v>1.195688312012705</v>
+      </c>
+      <c r="U16">
+        <v>0.0226</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01808</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>4.656552886641382</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1147690575591088</v>
+      </c>
+      <c r="C17">
+        <v>25.58739914247231</v>
+      </c>
+      <c r="D17">
+        <v>28.44739914247231</v>
+      </c>
+      <c r="E17">
+        <v>-6.199999999999999</v>
+      </c>
+      <c r="F17">
+        <v>4.5</v>
+      </c>
+      <c r="G17">
+        <v>1.64</v>
+      </c>
+      <c r="H17">
+        <v>19.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.18</v>
+      </c>
+      <c r="K17">
+        <v>1.738</v>
+      </c>
+      <c r="L17">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.4905</v>
+      </c>
+      <c r="N17">
+        <v>-0.04850000000000004</v>
+      </c>
+      <c r="O17">
+        <v>-0.009700000000000009</v>
+      </c>
+      <c r="P17">
+        <v>-0.03880000000000004</v>
+      </c>
+      <c r="Q17">
+        <v>1.6992</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1192537932067946</v>
+      </c>
+      <c r="T17">
+        <v>1.210957970062145</v>
+      </c>
+      <c r="U17">
+        <v>0.109</v>
+      </c>
+      <c r="V17">
+        <v>0.1802242609582059</v>
+      </c>
+      <c r="W17">
+        <v>0.08935555555555556</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.9011213047910295</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1157660575591087</v>
+      </c>
+      <c r="C18">
+        <v>25.02100384621276</v>
+      </c>
+      <c r="D18">
+        <v>28.18100384621276</v>
+      </c>
+      <c r="E18">
+        <v>-5.899999999999999</v>
+      </c>
+      <c r="F18">
+        <v>4.8</v>
+      </c>
+      <c r="G18">
+        <v>1.64</v>
+      </c>
+      <c r="H18">
+        <v>19.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2.18</v>
+      </c>
+      <c r="K18">
+        <v>1.738</v>
+      </c>
+      <c r="L18">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.5232</v>
+      </c>
+      <c r="N18">
+        <v>-0.08120000000000005</v>
+      </c>
+      <c r="O18">
+        <v>-0.01624000000000001</v>
+      </c>
+      <c r="P18">
+        <v>-0.06496000000000005</v>
+      </c>
+      <c r="Q18">
+        <v>1.67304</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1205627669354469</v>
+      </c>
+      <c r="T18">
+        <v>1.225374136372408</v>
+      </c>
+      <c r="U18">
+        <v>0.109</v>
+      </c>
+      <c r="V18">
+        <v>0.168960244648318</v>
+      </c>
+      <c r="W18">
+        <v>0.09058333333333334</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.8448012232415901</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1226449438733916</v>
+      </c>
+      <c r="C19">
+        <v>23.01070328003133</v>
+      </c>
+      <c r="D19">
+        <v>26.47070328003133</v>
+      </c>
+      <c r="E19">
+        <v>-5.599999999999999</v>
+      </c>
+      <c r="F19">
+        <v>5.100000000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.64</v>
+      </c>
+      <c r="H19">
+        <v>19.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.18</v>
+      </c>
+      <c r="K19">
+        <v>1.738</v>
+      </c>
+      <c r="L19">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.71502</v>
+      </c>
+      <c r="N19">
+        <v>-0.27302</v>
+      </c>
+      <c r="O19">
+        <v>-0.05460400000000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.218416</v>
+      </c>
+      <c r="Q19">
+        <v>1.519584</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1225995307711545</v>
+      </c>
+      <c r="T19">
+        <v>1.247805699013869</v>
+      </c>
+      <c r="U19">
+        <v>0.1402</v>
+      </c>
+      <c r="V19">
+        <v>0.1236329053732763</v>
+      </c>
+      <c r="W19">
+        <v>0.1228666666666667</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.6181645268663813</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1239539438733916</v>
+      </c>
+      <c r="C20">
+        <v>22.40848820200641</v>
+      </c>
+      <c r="D20">
+        <v>26.16848820200641</v>
+      </c>
+      <c r="E20">
+        <v>-5.3</v>
+      </c>
+      <c r="F20">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="G20">
+        <v>1.64</v>
+      </c>
+      <c r="H20">
+        <v>19.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.18</v>
+      </c>
+      <c r="K20">
+        <v>1.738</v>
+      </c>
+      <c r="L20">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.7570799999999999</v>
+      </c>
+      <c r="N20">
+        <v>-0.3150799999999999</v>
+      </c>
+      <c r="O20">
+        <v>-0.06301599999999999</v>
+      </c>
+      <c r="P20">
+        <v>-0.252064</v>
+      </c>
+      <c r="Q20">
+        <v>1.485936</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1239812323659247</v>
+      </c>
+      <c r="T20">
+        <v>1.26302284168477</v>
+      </c>
+      <c r="U20">
+        <v>0.1402</v>
+      </c>
+      <c r="V20">
+        <v>0.1167644106303165</v>
+      </c>
+      <c r="W20">
+        <v>0.1238296296296296</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.5838220531515824</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1252629438733916</v>
+      </c>
+      <c r="C21">
+        <v>21.81309598521494</v>
+      </c>
+      <c r="D21">
+        <v>25.87309598521494</v>
+      </c>
+      <c r="E21">
+        <v>-4.999999999999999</v>
+      </c>
+      <c r="F21">
+        <v>5.7</v>
+      </c>
+      <c r="G21">
+        <v>1.64</v>
+      </c>
+      <c r="H21">
+        <v>19.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.18</v>
+      </c>
+      <c r="K21">
+        <v>1.738</v>
+      </c>
+      <c r="L21">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.79914</v>
+      </c>
+      <c r="N21">
+        <v>-0.35714</v>
+      </c>
+      <c r="O21">
+        <v>-0.07142800000000001</v>
+      </c>
+      <c r="P21">
+        <v>-0.285712</v>
+      </c>
+      <c r="Q21">
+        <v>1.452288</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1253970500494546</v>
+      </c>
+      <c r="T21">
+        <v>1.278615716273471</v>
+      </c>
+      <c r="U21">
+        <v>0.1402</v>
+      </c>
+      <c r="V21">
+        <v>0.110618915333984</v>
+      </c>
+      <c r="W21">
+        <v>0.1246912280701754</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.5530945766699201</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1265719438733916</v>
+      </c>
+      <c r="C22">
+        <v>21.22429815748207</v>
+      </c>
+      <c r="D22">
+        <v>25.58429815748207</v>
+      </c>
+      <c r="E22">
+        <v>-4.699999999999999</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1.64</v>
+      </c>
+      <c r="H22">
+        <v>19.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2.18</v>
+      </c>
+      <c r="K22">
+        <v>1.738</v>
+      </c>
+      <c r="L22">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.8411999999999999</v>
+      </c>
+      <c r="N22">
+        <v>-0.3992</v>
+      </c>
+      <c r="O22">
+        <v>-0.07984000000000001</v>
+      </c>
+      <c r="P22">
+        <v>-0.31936</v>
+      </c>
+      <c r="Q22">
+        <v>1.41864</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1268482631750728</v>
+      </c>
+      <c r="T22">
+        <v>1.29459841272689</v>
+      </c>
+      <c r="U22">
+        <v>0.1402</v>
+      </c>
+      <c r="V22">
+        <v>0.1050879695672848</v>
+      </c>
+      <c r="W22">
+        <v>0.1254666666666667</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.5254398478364242</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1278809438733916</v>
+      </c>
+      <c r="C23">
+        <v>20.64187633493442</v>
+      </c>
+      <c r="D23">
+        <v>25.30187633493442</v>
+      </c>
+      <c r="E23">
+        <v>-4.399999999999999</v>
+      </c>
+      <c r="F23">
+        <v>6.3</v>
+      </c>
+      <c r="G23">
+        <v>1.64</v>
+      </c>
+      <c r="H23">
+        <v>19.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.18</v>
+      </c>
+      <c r="K23">
+        <v>1.738</v>
+      </c>
+      <c r="L23">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.8832599999999999</v>
+      </c>
+      <c r="N23">
+        <v>-0.44126</v>
+      </c>
+      <c r="O23">
+        <v>-0.088252</v>
+      </c>
+      <c r="P23">
+        <v>-0.353008</v>
+      </c>
+      <c r="Q23">
+        <v>1.384992</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1283362158734914</v>
+      </c>
+      <c r="T23">
+        <v>1.310985734406977</v>
+      </c>
+      <c r="U23">
+        <v>0.1402</v>
+      </c>
+      <c r="V23">
+        <v>0.1000837805402713</v>
+      </c>
+      <c r="W23">
+        <v>0.126168253968254</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.5004189027013564</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1392380170904491</v>
+      </c>
+      <c r="C24">
+        <v>18.13039682724916</v>
+      </c>
+      <c r="D24">
+        <v>23.09039682724916</v>
+      </c>
+      <c r="E24">
+        <v>-4.1</v>
+      </c>
+      <c r="F24">
+        <v>6.6</v>
+      </c>
+      <c r="G24">
+        <v>1.64</v>
+      </c>
+      <c r="H24">
+        <v>19.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2.18</v>
+      </c>
+      <c r="K24">
+        <v>1.738</v>
+      </c>
+      <c r="L24">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M24">
+        <v>1.21242</v>
+      </c>
+      <c r="N24">
+        <v>-0.7704200000000001</v>
+      </c>
+      <c r="O24">
+        <v>-0.154084</v>
+      </c>
+      <c r="P24">
+        <v>-0.6163360000000001</v>
+      </c>
+      <c r="Q24">
+        <v>1.121664</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1304752355860458</v>
+      </c>
+      <c r="T24">
+        <v>1.334543475286058</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.07291202718529881</v>
+      </c>
+      <c r="W24">
+        <v>0.1703060606060606</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.3645601359264941</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1409820170904491</v>
+      </c>
+      <c r="C25">
+        <v>17.52458702150278</v>
+      </c>
+      <c r="D25">
+        <v>22.78458702150278</v>
+      </c>
+      <c r="E25">
+        <v>-3.799999999999999</v>
+      </c>
+      <c r="F25">
+        <v>6.9</v>
+      </c>
+      <c r="G25">
+        <v>1.64</v>
+      </c>
+      <c r="H25">
+        <v>19.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.18</v>
+      </c>
+      <c r="K25">
+        <v>1.738</v>
+      </c>
+      <c r="L25">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M25">
+        <v>1.26753</v>
+      </c>
+      <c r="N25">
+        <v>-0.8255300000000001</v>
+      </c>
+      <c r="O25">
+        <v>-0.165106</v>
+      </c>
+      <c r="P25">
+        <v>-0.6604240000000001</v>
+      </c>
+      <c r="Q25">
+        <v>1.077576</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1320489399443062</v>
+      </c>
+      <c r="T25">
+        <v>1.351875208731332</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.06974193904680756</v>
+      </c>
+      <c r="W25">
+        <v>0.1708884057971015</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.3487096952340378</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1427260170904491</v>
+      </c>
+      <c r="C26">
+        <v>16.92677164312299</v>
+      </c>
+      <c r="D26">
+        <v>22.48677164312299</v>
+      </c>
+      <c r="E26">
+        <v>-3.5</v>
+      </c>
+      <c r="F26">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="G26">
+        <v>1.64</v>
+      </c>
+      <c r="H26">
+        <v>19.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2.18</v>
+      </c>
+      <c r="K26">
+        <v>1.738</v>
+      </c>
+      <c r="L26">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M26">
+        <v>1.32264</v>
+      </c>
+      <c r="N26">
+        <v>-0.8806399999999999</v>
+      </c>
+      <c r="O26">
+        <v>-0.176128</v>
+      </c>
+      <c r="P26">
+        <v>-0.7045119999999999</v>
+      </c>
+      <c r="Q26">
+        <v>1.033488</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1336640575751523</v>
+      </c>
+      <c r="T26">
+        <v>1.369663040425165</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.06683602491985727</v>
+      </c>
+      <c r="W26">
+        <v>0.1714222222222222</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.3341801245992863</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1444700170904491</v>
+      </c>
+      <c r="C27">
+        <v>16.33664125333866</v>
+      </c>
+      <c r="D27">
+        <v>22.19664125333865</v>
+      </c>
+      <c r="E27">
+        <v>-3.199999999999999</v>
+      </c>
+      <c r="F27">
+        <v>7.5</v>
+      </c>
+      <c r="G27">
+        <v>1.64</v>
+      </c>
+      <c r="H27">
+        <v>19.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2.18</v>
+      </c>
+      <c r="K27">
+        <v>1.738</v>
+      </c>
+      <c r="L27">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M27">
+        <v>1.37775</v>
+      </c>
+      <c r="N27">
+        <v>-0.9357500000000001</v>
+      </c>
+      <c r="O27">
+        <v>-0.18715</v>
+      </c>
+      <c r="P27">
+        <v>-0.7486</v>
+      </c>
+      <c r="Q27">
+        <v>0.9894000000000002</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1353222450094877</v>
+      </c>
+      <c r="T27">
+        <v>1.3879252142975</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.06416258392306295</v>
+      </c>
+      <c r="W27">
+        <v>0.1719133333333333</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.3208129196153148</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1462140170904491</v>
+      </c>
+      <c r="C28">
+        <v>15.75390217980574</v>
+      </c>
+      <c r="D28">
+        <v>21.91390217980574</v>
+      </c>
+      <c r="E28">
+        <v>-2.899999999999999</v>
+      </c>
+      <c r="F28">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="G28">
+        <v>1.64</v>
+      </c>
+      <c r="H28">
+        <v>19.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2.18</v>
+      </c>
+      <c r="K28">
+        <v>1.738</v>
+      </c>
+      <c r="L28">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M28">
+        <v>1.43286</v>
+      </c>
+      <c r="N28">
+        <v>-0.9908600000000003</v>
+      </c>
+      <c r="O28">
+        <v>-0.1981720000000001</v>
+      </c>
+      <c r="P28">
+        <v>-0.7926880000000003</v>
+      </c>
+      <c r="Q28">
+        <v>0.9453119999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1370252483204267</v>
+      </c>
+      <c r="T28">
+        <v>1.406680960436656</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.06169479223371437</v>
+      </c>
+      <c r="W28">
+        <v>0.1723666666666667</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.3084739611685718</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1479580170904491</v>
+      </c>
+      <c r="C29">
+        <v>15.17827552507974</v>
+      </c>
+      <c r="D29">
+        <v>21.63827552507974</v>
+      </c>
+      <c r="E29">
+        <v>-2.599999999999998</v>
+      </c>
+      <c r="F29">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="G29">
+        <v>1.64</v>
+      </c>
+      <c r="H29">
+        <v>19.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.18</v>
+      </c>
+      <c r="K29">
+        <v>1.738</v>
+      </c>
+      <c r="L29">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M29">
+        <v>1.48797</v>
+      </c>
+      <c r="N29">
+        <v>-1.04597</v>
+      </c>
+      <c r="O29">
+        <v>-0.2091940000000001</v>
+      </c>
+      <c r="P29">
+        <v>-0.8367760000000002</v>
+      </c>
+      <c r="Q29">
+        <v>0.901224</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.138774909256323</v>
+      </c>
+      <c r="T29">
+        <v>1.425950562634418</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.05940979992876199</v>
+      </c>
+      <c r="W29">
+        <v>0.1727864197530864</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2970489996438099</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1497020170904491</v>
+      </c>
+      <c r="C30">
+        <v>14.60949624898552</v>
+      </c>
+      <c r="D30">
+        <v>21.36949624898552</v>
+      </c>
+      <c r="E30">
+        <v>-2.299999999999999</v>
+      </c>
+      <c r="F30">
+        <v>8.4</v>
+      </c>
+      <c r="G30">
+        <v>1.64</v>
+      </c>
+      <c r="H30">
+        <v>19.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.18</v>
+      </c>
+      <c r="K30">
+        <v>1.738</v>
+      </c>
+      <c r="L30">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M30">
+        <v>1.54308</v>
+      </c>
+      <c r="N30">
+        <v>-1.10108</v>
+      </c>
+      <c r="O30">
+        <v>-0.220216</v>
+      </c>
+      <c r="P30">
+        <v>-0.8808640000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.8571360000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.140573171884883</v>
+      </c>
+      <c r="T30">
+        <v>1.445755431559896</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.05728802135987764</v>
+      </c>
+      <c r="W30">
+        <v>0.1731761904761905</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.2864401067993882</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1514460170904491</v>
+      </c>
+      <c r="C31">
+        <v>14.04731231853803</v>
+      </c>
+      <c r="D31">
+        <v>21.10731231853803</v>
+      </c>
+      <c r="E31">
+        <v>-2</v>
+      </c>
+      <c r="F31">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.64</v>
+      </c>
+      <c r="H31">
+        <v>19.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2.18</v>
+      </c>
+      <c r="K31">
+        <v>1.738</v>
+      </c>
+      <c r="L31">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M31">
+        <v>1.59819</v>
+      </c>
+      <c r="N31">
+        <v>-1.15619</v>
+      </c>
+      <c r="O31">
+        <v>-0.231238</v>
+      </c>
+      <c r="P31">
+        <v>-0.9249519999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.8130480000000003</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1424220897987546</v>
+      </c>
+      <c r="T31">
+        <v>1.466118184117078</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.05531257234746807</v>
+      </c>
+      <c r="W31">
+        <v>0.1735390804597701</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.2765628617373403</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1531900170904491</v>
+      </c>
+      <c r="C32">
+        <v>13.49148391968259</v>
+      </c>
+      <c r="D32">
+        <v>20.85148391968259</v>
+      </c>
+      <c r="E32">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>1.64</v>
+      </c>
+      <c r="H32">
+        <v>19.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2.18</v>
+      </c>
+      <c r="K32">
+        <v>1.738</v>
+      </c>
+      <c r="L32">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M32">
+        <v>1.6533</v>
+      </c>
+      <c r="N32">
+        <v>-1.2113</v>
+      </c>
+      <c r="O32">
+        <v>-0.24226</v>
+      </c>
+      <c r="P32">
+        <v>-0.96904</v>
+      </c>
+      <c r="Q32">
+        <v>0.7689600000000002</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1443238339387368</v>
+      </c>
+      <c r="T32">
+        <v>1.487062729604465</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.05346881993588581</v>
+      </c>
+      <c r="W32">
+        <v>0.1738777777777778</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.267344099679429</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1549340170904491</v>
+      </c>
+      <c r="C33">
+        <v>12.94178272567282</v>
+      </c>
+      <c r="D33">
+        <v>20.60178272567282</v>
+      </c>
+      <c r="E33">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="F33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G33">
+        <v>1.64</v>
+      </c>
+      <c r="H33">
+        <v>19.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2.18</v>
+      </c>
+      <c r="K33">
+        <v>1.738</v>
+      </c>
+      <c r="L33">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M33">
+        <v>1.70841</v>
+      </c>
+      <c r="N33">
+        <v>-1.26641</v>
+      </c>
+      <c r="O33">
+        <v>-0.2532820000000001</v>
+      </c>
+      <c r="P33">
+        <v>-1.013128</v>
+      </c>
+      <c r="Q33">
+        <v>0.724872</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1462807010972692</v>
+      </c>
+      <c r="T33">
+        <v>1.508614363366848</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.0517440192927927</v>
+      </c>
+      <c r="W33">
+        <v>0.174194623655914</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.2587200964639635</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1566780170904491</v>
+      </c>
+      <c r="C34">
+        <v>12.39799121739432</v>
+      </c>
+      <c r="D34">
+        <v>20.35799121739432</v>
+      </c>
+      <c r="E34">
+        <v>-1.1</v>
+      </c>
+      <c r="F34">
+        <v>9.6</v>
+      </c>
+      <c r="G34">
+        <v>1.64</v>
+      </c>
+      <c r="H34">
+        <v>19.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2.18</v>
+      </c>
+      <c r="K34">
+        <v>1.738</v>
+      </c>
+      <c r="L34">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M34">
+        <v>1.76352</v>
+      </c>
+      <c r="N34">
+        <v>-1.32152</v>
+      </c>
+      <c r="O34">
+        <v>-0.264304</v>
+      </c>
+      <c r="P34">
+        <v>-1.057216</v>
+      </c>
+      <c r="Q34">
+        <v>0.6807840000000003</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1482951231722291</v>
+      </c>
+      <c r="T34">
+        <v>1.530799868710479</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.05012701868989294</v>
+      </c>
+      <c r="W34">
+        <v>0.1744916666666667</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2506350934494647</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1584220170904491</v>
+      </c>
+      <c r="C35">
+        <v>11.85990205138203</v>
+      </c>
+      <c r="D35">
+        <v>20.11990205138203</v>
+      </c>
+      <c r="E35">
+        <v>-0.7999999999999989</v>
+      </c>
+      <c r="F35">
+        <v>9.9</v>
+      </c>
+      <c r="G35">
+        <v>1.64</v>
+      </c>
+      <c r="H35">
+        <v>19.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2.18</v>
+      </c>
+      <c r="K35">
+        <v>1.738</v>
+      </c>
+      <c r="L35">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M35">
+        <v>1.81863</v>
+      </c>
+      <c r="N35">
+        <v>-1.37663</v>
+      </c>
+      <c r="O35">
+        <v>-0.2753260000000001</v>
+      </c>
+      <c r="P35">
+        <v>-1.101304</v>
+      </c>
+      <c r="Q35">
+        <v>0.6366959999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1503696772494265</v>
+      </c>
+      <c r="T35">
+        <v>1.553647627944963</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.04860801812353254</v>
+      </c>
+      <c r="W35">
+        <v>0.1747707070707071</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2430400906176627</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1601660170904491</v>
+      </c>
+      <c r="C36">
+        <v>11.32731747167132</v>
+      </c>
+      <c r="D36">
+        <v>19.88731747167132</v>
+      </c>
+      <c r="E36">
+        <v>-0.4999999999999982</v>
+      </c>
+      <c r="F36">
+        <v>10.2</v>
+      </c>
+      <c r="G36">
+        <v>1.64</v>
+      </c>
+      <c r="H36">
+        <v>19.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2.18</v>
+      </c>
+      <c r="K36">
+        <v>1.738</v>
+      </c>
+      <c r="L36">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M36">
+        <v>1.87374</v>
+      </c>
+      <c r="N36">
+        <v>-1.43174</v>
+      </c>
+      <c r="O36">
+        <v>-0.286348</v>
+      </c>
+      <c r="P36">
+        <v>-1.145392</v>
+      </c>
+      <c r="Q36">
+        <v>0.592608</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1525070966016906</v>
+      </c>
+      <c r="T36">
+        <v>1.577187743519887</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.04717837053166393</v>
+      </c>
+      <c r="W36">
+        <v>0.1750333333333333</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.2358918526583197</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1619100170904491</v>
+      </c>
+      <c r="C37">
+        <v>10.80004876197687</v>
+      </c>
+      <c r="D37">
+        <v>19.66004876197687</v>
+      </c>
+      <c r="E37">
+        <v>-0.1999999999999975</v>
+      </c>
+      <c r="F37">
+        <v>10.5</v>
+      </c>
+      <c r="G37">
+        <v>1.64</v>
+      </c>
+      <c r="H37">
+        <v>19.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2.18</v>
+      </c>
+      <c r="K37">
+        <v>1.738</v>
+      </c>
+      <c r="L37">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M37">
+        <v>1.92885</v>
+      </c>
+      <c r="N37">
+        <v>-1.48685</v>
+      </c>
+      <c r="O37">
+        <v>-0.2973700000000001</v>
+      </c>
+      <c r="P37">
+        <v>-1.18948</v>
+      </c>
+      <c r="Q37">
+        <v>0.5485199999999999</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.154710282703255</v>
+      </c>
+      <c r="T37">
+        <v>1.60145217034327</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.04583041708790211</v>
+      </c>
+      <c r="W37">
+        <v>0.1752809523809524</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.2291520854395105</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1636540170904491</v>
+      </c>
+      <c r="C38">
+        <v>10.27791573500942</v>
+      </c>
+      <c r="D38">
+        <v>19.43791573500942</v>
+      </c>
+      <c r="E38">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="F38">
+        <v>10.8</v>
+      </c>
+      <c r="G38">
+        <v>1.64</v>
+      </c>
+      <c r="H38">
+        <v>19.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2.18</v>
+      </c>
+      <c r="K38">
+        <v>1.738</v>
+      </c>
+      <c r="L38">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M38">
+        <v>1.98396</v>
+      </c>
+      <c r="N38">
+        <v>-1.54196</v>
+      </c>
+      <c r="O38">
+        <v>-0.308392</v>
+      </c>
+      <c r="P38">
+        <v>-1.233568</v>
+      </c>
+      <c r="Q38">
+        <v>0.5044320000000004</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1569823183704934</v>
+      </c>
+      <c r="T38">
+        <v>1.626474860504884</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.04455734994657151</v>
+      </c>
+      <c r="W38">
+        <v>0.1755148148148148</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.2227867497328575</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1653980170904491</v>
+      </c>
+      <c r="C39">
+        <v>9.760746256026136</v>
+      </c>
+      <c r="D39">
+        <v>19.22074625602614</v>
+      </c>
+      <c r="E39">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F39">
+        <v>11.1</v>
+      </c>
+      <c r="G39">
+        <v>1.64</v>
+      </c>
+      <c r="H39">
+        <v>19.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2.18</v>
+      </c>
+      <c r="K39">
+        <v>1.738</v>
+      </c>
+      <c r="L39">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M39">
+        <v>2.03907</v>
+      </c>
+      <c r="N39">
+        <v>-1.59707</v>
+      </c>
+      <c r="O39">
+        <v>-0.3194140000000001</v>
+      </c>
+      <c r="P39">
+        <v>-1.277656</v>
+      </c>
+      <c r="Q39">
+        <v>0.4603440000000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.159326482154152</v>
+      </c>
+      <c r="T39">
+        <v>1.652291921782739</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.0433530972453128</v>
+      </c>
+      <c r="W39">
+        <v>0.175736036036036</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.216765486226564</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1671420170904491</v>
+      </c>
+      <c r="C40">
+        <v>9.248375797966789</v>
+      </c>
+      <c r="D40">
+        <v>19.00837579796679</v>
+      </c>
+      <c r="E40">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="F40">
+        <v>11.4</v>
+      </c>
+      <c r="G40">
+        <v>1.64</v>
+      </c>
+      <c r="H40">
+        <v>19.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2.18</v>
+      </c>
+      <c r="K40">
+        <v>1.738</v>
+      </c>
+      <c r="L40">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M40">
+        <v>2.09418</v>
+      </c>
+      <c r="N40">
+        <v>-1.65218</v>
+      </c>
+      <c r="O40">
+        <v>-0.3304360000000001</v>
+      </c>
+      <c r="P40">
+        <v>-1.321744</v>
+      </c>
+      <c r="Q40">
+        <v>0.416256</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1617462641243803</v>
+      </c>
+      <c r="T40">
+        <v>1.678941791488912</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.042212226265173</v>
+      </c>
+      <c r="W40">
+        <v>0.1759456140350877</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.211061131325865</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1688860170904491</v>
+      </c>
+      <c r="C41">
+        <v>8.740647025759481</v>
+      </c>
+      <c r="D41">
+        <v>18.80064702575948</v>
+      </c>
+      <c r="E41">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="F41">
+        <v>11.7</v>
+      </c>
+      <c r="G41">
+        <v>1.64</v>
+      </c>
+      <c r="H41">
+        <v>19.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.18</v>
+      </c>
+      <c r="K41">
+        <v>1.738</v>
+      </c>
+      <c r="L41">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M41">
+        <v>2.14929</v>
+      </c>
+      <c r="N41">
+        <v>-1.70729</v>
+      </c>
+      <c r="O41">
+        <v>-0.341458</v>
+      </c>
+      <c r="P41">
+        <v>-1.365832</v>
+      </c>
+      <c r="Q41">
+        <v>0.3721680000000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1642453832083865</v>
+      </c>
+      <c r="T41">
+        <v>1.70646542741496</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.04112986148914292</v>
+      </c>
+      <c r="W41">
+        <v>0.1761444444444445</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2056493074457146</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1706300170904491</v>
+      </c>
+      <c r="C42">
+        <v>8.237409407588633</v>
+      </c>
+      <c r="D42">
+        <v>18.59740940758863</v>
+      </c>
+      <c r="E42">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>1.64</v>
+      </c>
+      <c r="H42">
+        <v>19.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.18</v>
+      </c>
+      <c r="K42">
+        <v>1.738</v>
+      </c>
+      <c r="L42">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M42">
+        <v>2.2044</v>
+      </c>
+      <c r="N42">
+        <v>-1.7624</v>
+      </c>
+      <c r="O42">
+        <v>-0.3524800000000001</v>
+      </c>
+      <c r="P42">
+        <v>-1.40992</v>
+      </c>
+      <c r="Q42">
+        <v>0.3280800000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1668278062618596</v>
+      </c>
+      <c r="T42">
+        <v>1.734906517871876</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04010161495191435</v>
+      </c>
+      <c r="W42">
+        <v>0.1763333333333333</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.2005080747595718</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1723740170904491</v>
+      </c>
+      <c r="C43">
+        <v>7.738518851106878</v>
+      </c>
+      <c r="D43">
+        <v>18.39851885110688</v>
+      </c>
+      <c r="E43">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="F43">
+        <v>12.3</v>
+      </c>
+      <c r="G43">
+        <v>1.64</v>
+      </c>
+      <c r="H43">
+        <v>19.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2.18</v>
+      </c>
+      <c r="K43">
+        <v>1.738</v>
+      </c>
+      <c r="L43">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M43">
+        <v>2.25951</v>
+      </c>
+      <c r="N43">
+        <v>-1.81751</v>
+      </c>
+      <c r="O43">
+        <v>-0.363502</v>
+      </c>
+      <c r="P43">
+        <v>-1.454008</v>
+      </c>
+      <c r="Q43">
+        <v>0.283992</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1694977690798572</v>
+      </c>
+      <c r="T43">
+        <v>1.764311713090043</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.03912352678235546</v>
+      </c>
+      <c r="W43">
+        <v>0.1765130081300813</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1956176339117773</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1741180170904491</v>
+      </c>
+      <c r="C44">
+        <v>7.243837362743131</v>
+      </c>
+      <c r="D44">
+        <v>18.20383736274313</v>
+      </c>
+      <c r="E44">
+        <v>1.9</v>
+      </c>
+      <c r="F44">
+        <v>12.6</v>
+      </c>
+      <c r="G44">
+        <v>1.64</v>
+      </c>
+      <c r="H44">
+        <v>19.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2.18</v>
+      </c>
+      <c r="K44">
+        <v>1.738</v>
+      </c>
+      <c r="L44">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M44">
+        <v>2.31462</v>
+      </c>
+      <c r="N44">
+        <v>-1.87262</v>
+      </c>
+      <c r="O44">
+        <v>-0.3745240000000001</v>
+      </c>
+      <c r="P44">
+        <v>-1.498096</v>
+      </c>
+      <c r="Q44">
+        <v>0.2399040000000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1722597995812341</v>
+      </c>
+      <c r="T44">
+        <v>1.794730880557113</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.03819201423991843</v>
+      </c>
+      <c r="W44">
+        <v>0.176684126984127</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1909600711995921</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1758620170904491</v>
+      </c>
+      <c r="C45">
+        <v>6.753232728414142</v>
+      </c>
+      <c r="D45">
+        <v>18.01323272841414</v>
+      </c>
+      <c r="E45">
+        <v>2.200000000000001</v>
+      </c>
+      <c r="F45">
+        <v>12.9</v>
+      </c>
+      <c r="G45">
+        <v>1.64</v>
+      </c>
+      <c r="H45">
+        <v>19.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2.18</v>
+      </c>
+      <c r="K45">
+        <v>1.738</v>
+      </c>
+      <c r="L45">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M45">
+        <v>2.36973</v>
+      </c>
+      <c r="N45">
+        <v>-1.92773</v>
+      </c>
+      <c r="O45">
+        <v>-0.3855460000000001</v>
+      </c>
+      <c r="P45">
+        <v>-1.542184</v>
+      </c>
+      <c r="Q45">
+        <v>0.195816</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1751187434335364</v>
+      </c>
+      <c r="T45">
+        <v>1.826217387233553</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.0373038278622459</v>
+      </c>
+      <c r="W45">
+        <v>0.1768472868217054</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1865191393112295</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1776060170904491</v>
+      </c>
+      <c r="C46">
+        <v>6.266578214086994</v>
+      </c>
+      <c r="D46">
+        <v>17.82657821408699</v>
+      </c>
+      <c r="E46">
+        <v>2.5</v>
+      </c>
+      <c r="F46">
+        <v>13.2</v>
+      </c>
+      <c r="G46">
+        <v>1.64</v>
+      </c>
+      <c r="H46">
+        <v>19.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2.18</v>
+      </c>
+      <c r="K46">
+        <v>1.738</v>
+      </c>
+      <c r="L46">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M46">
+        <v>2.42484</v>
+      </c>
+      <c r="N46">
+        <v>-1.98284</v>
+      </c>
+      <c r="O46">
+        <v>-0.396568</v>
+      </c>
+      <c r="P46">
+        <v>-1.586272</v>
+      </c>
+      <c r="Q46">
+        <v>0.1517280000000001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.178079792423421</v>
+      </c>
+      <c r="T46">
+        <v>1.858828412005581</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.0364560135926494</v>
+      </c>
+      <c r="W46">
+        <v>0.1770030303030303</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.182280067963247</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1793500170904491</v>
+      </c>
+      <c r="C47">
+        <v>5.783752284767434</v>
+      </c>
+      <c r="D47">
+        <v>17.64375228476743</v>
+      </c>
+      <c r="E47">
+        <v>2.800000000000001</v>
+      </c>
+      <c r="F47">
+        <v>13.5</v>
+      </c>
+      <c r="G47">
+        <v>1.64</v>
+      </c>
+      <c r="H47">
+        <v>19.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2.18</v>
+      </c>
+      <c r="K47">
+        <v>1.738</v>
+      </c>
+      <c r="L47">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M47">
+        <v>2.47995</v>
+      </c>
+      <c r="N47">
+        <v>-2.03795</v>
+      </c>
+      <c r="O47">
+        <v>-0.4075900000000001</v>
+      </c>
+      <c r="P47">
+        <v>-1.63036</v>
+      </c>
+      <c r="Q47">
+        <v>0.10764</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1811485159220287</v>
+      </c>
+      <c r="T47">
+        <v>1.892625292223864</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.0356458799572572</v>
+      </c>
+      <c r="W47">
+        <v>0.1771518518518519</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1782293997862859</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1810940170904491</v>
+      </c>
+      <c r="C48">
+        <v>5.304638340604679</v>
+      </c>
+      <c r="D48">
+        <v>17.46463834060468</v>
+      </c>
+      <c r="E48">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="F48">
+        <v>13.8</v>
+      </c>
+      <c r="G48">
+        <v>1.64</v>
+      </c>
+      <c r="H48">
+        <v>19.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2.18</v>
+      </c>
+      <c r="K48">
+        <v>1.738</v>
+      </c>
+      <c r="L48">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M48">
+        <v>2.53506</v>
+      </c>
+      <c r="N48">
+        <v>-2.09306</v>
+      </c>
+      <c r="O48">
+        <v>-0.4186120000000001</v>
+      </c>
+      <c r="P48">
+        <v>-1.674448</v>
+      </c>
+      <c r="Q48">
+        <v>0.06355199999999983</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1843308958465107</v>
+      </c>
+      <c r="T48">
+        <v>1.927673908746529</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03487096952340378</v>
+      </c>
+      <c r="W48">
+        <v>0.1772942028985507</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1743548476170188</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1828380170904491</v>
+      </c>
+      <c r="C49">
+        <v>4.829124468908542</v>
+      </c>
+      <c r="D49">
+        <v>17.28912446890854</v>
+      </c>
+      <c r="E49">
+        <v>3.400000000000002</v>
+      </c>
+      <c r="F49">
+        <v>14.1</v>
+      </c>
+      <c r="G49">
+        <v>1.64</v>
+      </c>
+      <c r="H49">
+        <v>19.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2.18</v>
+      </c>
+      <c r="K49">
+        <v>1.738</v>
+      </c>
+      <c r="L49">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M49">
+        <v>2.59017</v>
+      </c>
+      <c r="N49">
+        <v>-2.14817</v>
+      </c>
+      <c r="O49">
+        <v>-0.4296340000000001</v>
+      </c>
+      <c r="P49">
+        <v>-1.718536</v>
+      </c>
+      <c r="Q49">
+        <v>0.01946399999999993</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1876333655794637</v>
+      </c>
+      <c r="T49">
+        <v>1.964045114571935</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03412903400162923</v>
+      </c>
+      <c r="W49">
+        <v>0.1774304964539007</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1706451700081461</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1845820170904491</v>
+      </c>
+      <c r="C50">
+        <v>4.357103210970735</v>
+      </c>
+      <c r="D50">
+        <v>17.11710321097073</v>
+      </c>
+      <c r="E50">
+        <v>3.699999999999999</v>
+      </c>
+      <c r="F50">
+        <v>14.4</v>
+      </c>
+      <c r="G50">
+        <v>1.64</v>
+      </c>
+      <c r="H50">
+        <v>19.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2.18</v>
+      </c>
+      <c r="K50">
+        <v>1.738</v>
+      </c>
+      <c r="L50">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M50">
+        <v>2.64528</v>
+      </c>
+      <c r="N50">
+        <v>-2.203279999999999</v>
+      </c>
+      <c r="O50">
+        <v>-0.4406559999999999</v>
+      </c>
+      <c r="P50">
+        <v>-1.762624</v>
+      </c>
+      <c r="Q50">
+        <v>-0.02462399999999931</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1910628533790688</v>
+      </c>
+      <c r="T50">
+        <v>2.001815212929087</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03341801245992863</v>
+      </c>
+      <c r="W50">
+        <v>0.1775611111111111</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1670900622996432</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1863260170904491</v>
+      </c>
+      <c r="C51">
+        <v>3.888471342669252</v>
+      </c>
+      <c r="D51">
+        <v>16.94847134266925</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>14.7</v>
+      </c>
+      <c r="G51">
+        <v>1.64</v>
+      </c>
+      <c r="H51">
+        <v>19.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2.18</v>
+      </c>
+      <c r="K51">
+        <v>1.738</v>
+      </c>
+      <c r="L51">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M51">
+        <v>2.70039</v>
+      </c>
+      <c r="N51">
+        <v>-2.25839</v>
+      </c>
+      <c r="O51">
+        <v>-0.4516780000000001</v>
+      </c>
+      <c r="P51">
+        <v>-1.806712</v>
+      </c>
+      <c r="Q51">
+        <v>-0.06871200000000011</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1946268308963054</v>
+      </c>
+      <c r="T51">
+        <v>2.041066491613971</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03273601220564436</v>
+      </c>
+      <c r="W51">
+        <v>0.1776863945578231</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1636800610282217</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1880700170904491</v>
+      </c>
+      <c r="C52">
+        <v>3.423129667914804</v>
+      </c>
+      <c r="D52">
+        <v>16.7831296679148</v>
+      </c>
+      <c r="E52">
+        <v>4.300000000000001</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>1.64</v>
+      </c>
+      <c r="H52">
+        <v>19.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2.18</v>
+      </c>
+      <c r="K52">
+        <v>1.738</v>
+      </c>
+      <c r="L52">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M52">
+        <v>2.7555</v>
+      </c>
+      <c r="N52">
+        <v>-2.3135</v>
+      </c>
+      <c r="O52">
+        <v>-0.4627000000000001</v>
+      </c>
+      <c r="P52">
+        <v>-1.8508</v>
+      </c>
+      <c r="Q52">
+        <v>-0.1128</v>
+      </c>
+      <c r="R52">
         <v>1</v>
       </c>
-      <c r="U4">
-        <v>0.979</v>
-      </c>
-      <c r="V4">
-        <v>0.05207446808510638</v>
-      </c>
-      <c r="W4">
-        <v>-0.09921874999999999</v>
-      </c>
-      <c r="X4">
-        <v>0.1612987720408222</v>
-      </c>
-      <c r="Y4">
-        <v>-0.2605175220408222</v>
-      </c>
-      <c r="Z4">
-        <v>0.7429906542056075</v>
-      </c>
-      <c r="AA4">
-        <v>-0.06682242990654205</v>
-      </c>
-      <c r="AB4">
-        <v>0.1339585719936021</v>
-      </c>
-      <c r="AC4">
-        <v>-0.2007810019001441</v>
-      </c>
-      <c r="AD4">
-        <v>6.72</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>6.72</v>
-      </c>
-      <c r="AG4">
-        <v>5.741</v>
-      </c>
-      <c r="AH4">
-        <v>0.2633228840125392</v>
-      </c>
-      <c r="AI4">
-        <v>0.126984126984127</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2339350474715781</v>
-      </c>
-      <c r="AK4">
-        <v>0.1105292543462775</v>
-      </c>
-      <c r="AL4">
-        <v>0.882</v>
-      </c>
-      <c r="AM4">
-        <v>0.879</v>
-      </c>
-      <c r="AN4">
-        <v>-2.742857142857142</v>
-      </c>
-      <c r="AO4">
-        <v>-4.863945578231292</v>
-      </c>
-      <c r="AP4">
-        <v>-2.343265306122449</v>
-      </c>
-      <c r="AQ4">
-        <v>-4.880546075085324</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arab Electrical Industries company PLC (ASE:AEIN)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>-0.463</v>
-      </c>
-      <c r="G5">
-        <v>-1.485781990521327</v>
-      </c>
-      <c r="H5">
-        <v>-1.485781990521327</v>
-      </c>
-      <c r="I5">
-        <v>-1.748815165876777</v>
-      </c>
-      <c r="J5">
-        <v>-1.748815165876777</v>
-      </c>
-      <c r="K5">
-        <v>-0.864</v>
-      </c>
-      <c r="L5">
-        <v>-2.04739336492891</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.001</v>
-      </c>
-      <c r="V5">
-        <v>0.0007142857142857144</v>
-      </c>
-      <c r="W5">
-        <v>-0.2066985645933014</v>
-      </c>
-      <c r="X5">
-        <v>0.3083952507280646</v>
-      </c>
-      <c r="Y5">
-        <v>-0.515093815321366</v>
-      </c>
-      <c r="Z5">
-        <v>0.06127486568897924</v>
-      </c>
-      <c r="AA5">
-        <v>-0.1071584144039495</v>
-      </c>
-      <c r="AB5">
-        <v>0.1405192873424961</v>
-      </c>
-      <c r="AC5">
-        <v>-0.2476777017464456</v>
-      </c>
-      <c r="AD5">
-        <v>2.83</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>2.83</v>
-      </c>
-      <c r="AG5">
-        <v>2.829</v>
-      </c>
-      <c r="AH5">
-        <v>0.6690307328605201</v>
-      </c>
-      <c r="AI5">
-        <v>0.4609120521172638</v>
-      </c>
-      <c r="AJ5">
-        <v>0.6689524710333412</v>
-      </c>
-      <c r="AK5">
-        <v>0.4608242384753217</v>
-      </c>
-      <c r="AL5">
-        <v>0.128</v>
-      </c>
-      <c r="AM5">
-        <v>0.128</v>
-      </c>
-      <c r="AN5">
-        <v>-4.579288025889968</v>
-      </c>
-      <c r="AO5">
-        <v>-5.765625</v>
-      </c>
-      <c r="AP5">
-        <v>-4.577669902912621</v>
-      </c>
-      <c r="AQ5">
-        <v>-5.765625</v>
+      <c r="S52">
+        <v>0.1983333675142316</v>
+      </c>
+      <c r="T52">
+        <v>2.081887821446251</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03208129196153148</v>
+      </c>
+      <c r="W52">
+        <v>0.1778066666666667</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1604064598076573</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1898140170904491</v>
+      </c>
+      <c r="C53">
+        <v>2.960982824070665</v>
+      </c>
+      <c r="D53">
+        <v>16.62098282407067</v>
+      </c>
+      <c r="E53">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="F53">
+        <v>15.3</v>
+      </c>
+      <c r="G53">
+        <v>1.64</v>
+      </c>
+      <c r="H53">
+        <v>19.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2.18</v>
+      </c>
+      <c r="K53">
+        <v>1.738</v>
+      </c>
+      <c r="L53">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M53">
+        <v>2.81061</v>
+      </c>
+      <c r="N53">
+        <v>-2.36861</v>
+      </c>
+      <c r="O53">
+        <v>-0.4737220000000001</v>
+      </c>
+      <c r="P53">
+        <v>-1.894888</v>
+      </c>
+      <c r="Q53">
+        <v>-0.1568880000000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2021911913410526</v>
+      </c>
+      <c r="T53">
+        <v>2.124375328006379</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03145224702110929</v>
+      </c>
+      <c r="W53">
+        <v>0.1779222222222222</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1572612351055463</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1915580170904491</v>
+      </c>
+      <c r="C54">
+        <v>2.501939098543932</v>
+      </c>
+      <c r="D54">
+        <v>16.46193909854393</v>
+      </c>
+      <c r="E54">
+        <v>4.900000000000002</v>
+      </c>
+      <c r="F54">
+        <v>15.6</v>
+      </c>
+      <c r="G54">
+        <v>1.64</v>
+      </c>
+      <c r="H54">
+        <v>19.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2.18</v>
+      </c>
+      <c r="K54">
+        <v>1.738</v>
+      </c>
+      <c r="L54">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M54">
+        <v>2.86572</v>
+      </c>
+      <c r="N54">
+        <v>-2.42372</v>
+      </c>
+      <c r="O54">
+        <v>-0.4847440000000001</v>
+      </c>
+      <c r="P54">
+        <v>-1.938976</v>
+      </c>
+      <c r="Q54">
+        <v>-0.200976</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2062097578273245</v>
+      </c>
+      <c r="T54">
+        <v>2.168633147339845</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03084739611685719</v>
+      </c>
+      <c r="W54">
+        <v>0.1780333333333333</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.154236980584286</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1933020170904491</v>
+      </c>
+      <c r="C55">
+        <v>2.045910255807135</v>
+      </c>
+      <c r="D55">
+        <v>16.30591025580713</v>
+      </c>
+      <c r="E55">
+        <v>5.200000000000001</v>
+      </c>
+      <c r="F55">
+        <v>15.9</v>
+      </c>
+      <c r="G55">
+        <v>1.64</v>
+      </c>
+      <c r="H55">
+        <v>19.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2.18</v>
+      </c>
+      <c r="K55">
+        <v>1.738</v>
+      </c>
+      <c r="L55">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M55">
+        <v>2.92083</v>
+      </c>
+      <c r="N55">
+        <v>-2.47883</v>
+      </c>
+      <c r="O55">
+        <v>-0.4957660000000001</v>
+      </c>
+      <c r="P55">
+        <v>-1.983064</v>
+      </c>
+      <c r="Q55">
+        <v>-0.2450639999999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.2103993271427995</v>
+      </c>
+      <c r="T55">
+        <v>2.21477427813431</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.0302653697750297</v>
+      </c>
+      <c r="W55">
+        <v>0.178140251572327</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1513268488751484</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1950460170904491</v>
+      </c>
+      <c r="C56">
+        <v>1.592811374164459</v>
+      </c>
+      <c r="D56">
+        <v>16.15281137416446</v>
+      </c>
+      <c r="E56">
+        <v>5.500000000000004</v>
+      </c>
+      <c r="F56">
+        <v>16.2</v>
+      </c>
+      <c r="G56">
+        <v>1.64</v>
+      </c>
+      <c r="H56">
+        <v>19.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2.18</v>
+      </c>
+      <c r="K56">
+        <v>1.738</v>
+      </c>
+      <c r="L56">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M56">
+        <v>2.97594</v>
+      </c>
+      <c r="N56">
+        <v>-2.53394</v>
+      </c>
+      <c r="O56">
+        <v>-0.5067880000000001</v>
+      </c>
+      <c r="P56">
+        <v>-2.027152</v>
+      </c>
+      <c r="Q56">
+        <v>-0.2891519999999999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2147710516459038</v>
+      </c>
+      <c r="T56">
+        <v>2.262921545050273</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.029704899964381</v>
+      </c>
+      <c r="W56">
+        <v>0.1782432098765432</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1485244998219051</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1967900170904491</v>
+      </c>
+      <c r="C57">
+        <v>1.142560691628375</v>
+      </c>
+      <c r="D57">
+        <v>16.00256069162837</v>
+      </c>
+      <c r="E57">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="F57">
+        <v>16.5</v>
+      </c>
+      <c r="G57">
+        <v>1.64</v>
+      </c>
+      <c r="H57">
+        <v>19.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2.18</v>
+      </c>
+      <c r="K57">
+        <v>1.738</v>
+      </c>
+      <c r="L57">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M57">
+        <v>3.03105</v>
+      </c>
+      <c r="N57">
+        <v>-2.58905</v>
+      </c>
+      <c r="O57">
+        <v>-0.5178100000000001</v>
+      </c>
+      <c r="P57">
+        <v>-2.07124</v>
+      </c>
+      <c r="Q57">
+        <v>-0.3332400000000002</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2193370750158128</v>
+      </c>
+      <c r="T57">
+        <v>2.313208690495835</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.02916481087411953</v>
+      </c>
+      <c r="W57">
+        <v>0.1783424242424242</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1458240543705975</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1985340170904491</v>
+      </c>
+      <c r="C58">
+        <v>0.6950794603185706</v>
+      </c>
+      <c r="D58">
+        <v>15.85507946031857</v>
+      </c>
+      <c r="E58">
+        <v>6.100000000000001</v>
+      </c>
+      <c r="F58">
+        <v>16.8</v>
+      </c>
+      <c r="G58">
+        <v>1.64</v>
+      </c>
+      <c r="H58">
+        <v>19.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2.18</v>
+      </c>
+      <c r="K58">
+        <v>1.738</v>
+      </c>
+      <c r="L58">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M58">
+        <v>3.08616</v>
+      </c>
+      <c r="N58">
+        <v>-2.64416</v>
+      </c>
+      <c r="O58">
+        <v>-0.5288320000000001</v>
+      </c>
+      <c r="P58">
+        <v>-2.115328</v>
+      </c>
+      <c r="Q58">
+        <v>-0.3773280000000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2241106449025358</v>
+      </c>
+      <c r="T58">
+        <v>2.365781615279831</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.02864401067993882</v>
+      </c>
+      <c r="W58">
+        <v>0.1784380952380952</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.143220053399694</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2002780170904491</v>
+      </c>
+      <c r="C59">
+        <v>0.2502918088387709</v>
+      </c>
+      <c r="D59">
+        <v>15.71029180883877</v>
+      </c>
+      <c r="E59">
+        <v>6.400000000000002</v>
+      </c>
+      <c r="F59">
+        <v>17.1</v>
+      </c>
+      <c r="G59">
+        <v>1.64</v>
+      </c>
+      <c r="H59">
+        <v>19.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2.18</v>
+      </c>
+      <c r="K59">
+        <v>1.738</v>
+      </c>
+      <c r="L59">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M59">
+        <v>3.14127</v>
+      </c>
+      <c r="N59">
+        <v>-2.69927</v>
+      </c>
+      <c r="O59">
+        <v>-0.5398540000000001</v>
+      </c>
+      <c r="P59">
+        <v>-2.159416</v>
+      </c>
+      <c r="Q59">
+        <v>-0.421416</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2291062412956181</v>
+      </c>
+      <c r="T59">
+        <v>2.420799792379362</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.028141484176782</v>
+      </c>
+      <c r="W59">
+        <v>0.1785304093567252</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1407074208839101</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.2020220170904491</v>
+      </c>
+      <c r="C60">
+        <v>-0.1918753878741803</v>
+      </c>
+      <c r="D60">
+        <v>15.56812461212582</v>
+      </c>
+      <c r="E60">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="F60">
+        <v>17.4</v>
+      </c>
+      <c r="G60">
+        <v>1.64</v>
+      </c>
+      <c r="H60">
+        <v>19.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2.18</v>
+      </c>
+      <c r="K60">
+        <v>1.738</v>
+      </c>
+      <c r="L60">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M60">
+        <v>3.19638</v>
+      </c>
+      <c r="N60">
+        <v>-2.754379999999999</v>
+      </c>
+      <c r="O60">
+        <v>-0.5508759999999999</v>
+      </c>
+      <c r="P60">
+        <v>-2.203504</v>
+      </c>
+      <c r="Q60">
+        <v>-0.4655039999999995</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.234339723231228</v>
+      </c>
+      <c r="T60">
+        <v>2.478437882674108</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02765628617373404</v>
+      </c>
+      <c r="W60">
+        <v>0.178619540229885</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1382814308686703</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2037660170904491</v>
+      </c>
+      <c r="C61">
+        <v>-0.6314926316979168</v>
+      </c>
+      <c r="D61">
+        <v>15.42850736830208</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>17.7</v>
+      </c>
+      <c r="G61">
+        <v>1.64</v>
+      </c>
+      <c r="H61">
+        <v>19.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2.18</v>
+      </c>
+      <c r="K61">
+        <v>1.738</v>
+      </c>
+      <c r="L61">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M61">
+        <v>3.25149</v>
+      </c>
+      <c r="N61">
+        <v>-2.80949</v>
+      </c>
+      <c r="O61">
+        <v>-0.5618980000000001</v>
+      </c>
+      <c r="P61">
+        <v>-2.247592</v>
+      </c>
+      <c r="Q61">
+        <v>-0.5095919999999998</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.239828496968575</v>
+      </c>
+      <c r="T61">
+        <v>2.538887587129574</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.0271875355606199</v>
+      </c>
+      <c r="W61">
+        <v>0.1787056497175141</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1359376778030994</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2055100170904491</v>
+      </c>
+      <c r="C62">
+        <v>-1.06862791790461</v>
+      </c>
+      <c r="D62">
+        <v>15.29137208209539</v>
+      </c>
+      <c r="E62">
+        <v>7.300000000000001</v>
+      </c>
+      <c r="F62">
+        <v>18</v>
+      </c>
+      <c r="G62">
+        <v>1.64</v>
+      </c>
+      <c r="H62">
+        <v>19.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>2.18</v>
+      </c>
+      <c r="K62">
+        <v>1.738</v>
+      </c>
+      <c r="L62">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M62">
+        <v>3.3066</v>
+      </c>
+      <c r="N62">
+        <v>-2.8646</v>
+      </c>
+      <c r="O62">
+        <v>-0.5729200000000001</v>
+      </c>
+      <c r="P62">
+        <v>-2.29168</v>
+      </c>
+      <c r="Q62">
+        <v>-0.5536800000000002</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2455917093927894</v>
+      </c>
+      <c r="T62">
+        <v>2.602359776807813</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.0267344099679429</v>
+      </c>
+      <c r="W62">
+        <v>0.1787888888888889</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1336720498397145</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2072540170904491</v>
+      </c>
+      <c r="C63">
+        <v>-1.503346845578548</v>
+      </c>
+      <c r="D63">
+        <v>15.15665315442145</v>
+      </c>
+      <c r="E63">
+        <v>7.600000000000001</v>
+      </c>
+      <c r="F63">
+        <v>18.3</v>
+      </c>
+      <c r="G63">
+        <v>1.64</v>
+      </c>
+      <c r="H63">
+        <v>19.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2.18</v>
+      </c>
+      <c r="K63">
+        <v>1.738</v>
+      </c>
+      <c r="L63">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M63">
+        <v>3.36171</v>
+      </c>
+      <c r="N63">
+        <v>-2.91971</v>
+      </c>
+      <c r="O63">
+        <v>-0.5839420000000001</v>
+      </c>
+      <c r="P63">
+        <v>-2.335768</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5977680000000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2516504711720917</v>
+      </c>
+      <c r="T63">
+        <v>2.669086950572116</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02629614095207498</v>
+      </c>
+      <c r="W63">
+        <v>0.1788693989071038</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1314807047603749</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2089980170904491</v>
+      </c>
+      <c r="C64">
+        <v>-1.935712722247914</v>
+      </c>
+      <c r="D64">
+        <v>15.02428727775209</v>
+      </c>
+      <c r="E64">
+        <v>7.900000000000002</v>
+      </c>
+      <c r="F64">
+        <v>18.6</v>
+      </c>
+      <c r="G64">
+        <v>1.64</v>
+      </c>
+      <c r="H64">
+        <v>19.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2.18</v>
+      </c>
+      <c r="K64">
+        <v>1.738</v>
+      </c>
+      <c r="L64">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M64">
+        <v>3.41682</v>
+      </c>
+      <c r="N64">
+        <v>-2.97482</v>
+      </c>
+      <c r="O64">
+        <v>-0.594964</v>
+      </c>
+      <c r="P64">
+        <v>-2.379856</v>
+      </c>
+      <c r="Q64">
+        <v>-0.641856</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2580281151503046</v>
+      </c>
+      <c r="T64">
+        <v>2.73932608085033</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.02587200964639635</v>
+      </c>
+      <c r="W64">
+        <v>0.178947311827957</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1293600482319818</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2107420170904491</v>
+      </c>
+      <c r="C65">
+        <v>-2.365786663081391</v>
+      </c>
+      <c r="D65">
+        <v>14.89421333691861</v>
+      </c>
+      <c r="E65">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F65">
+        <v>18.9</v>
+      </c>
+      <c r="G65">
+        <v>1.64</v>
+      </c>
+      <c r="H65">
+        <v>19.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2.18</v>
+      </c>
+      <c r="K65">
+        <v>1.738</v>
+      </c>
+      <c r="L65">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M65">
+        <v>3.47193</v>
+      </c>
+      <c r="N65">
+        <v>-3.02993</v>
+      </c>
+      <c r="O65">
+        <v>-0.6059860000000001</v>
+      </c>
+      <c r="P65">
+        <v>-2.423944</v>
+      </c>
+      <c r="Q65">
+        <v>-0.6859439999999999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2647504966408534</v>
+      </c>
+      <c r="T65">
+        <v>2.813361920873312</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02546134282661229</v>
+      </c>
+      <c r="W65">
+        <v>0.1790227513227513</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1273067141330614</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2124860170904491</v>
+      </c>
+      <c r="C66">
+        <v>-2.793627684976229</v>
+      </c>
+      <c r="D66">
+        <v>14.76637231502377</v>
+      </c>
+      <c r="E66">
+        <v>8.5</v>
+      </c>
+      <c r="F66">
+        <v>19.2</v>
+      </c>
+      <c r="G66">
+        <v>1.64</v>
+      </c>
+      <c r="H66">
+        <v>19.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>2.18</v>
+      </c>
+      <c r="K66">
+        <v>1.738</v>
+      </c>
+      <c r="L66">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M66">
+        <v>3.52704</v>
+      </c>
+      <c r="N66">
+        <v>-3.08504</v>
+      </c>
+      <c r="O66">
+        <v>-0.6170080000000001</v>
+      </c>
+      <c r="P66">
+        <v>-2.468032</v>
+      </c>
+      <c r="Q66">
+        <v>-0.7300319999999998</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.271846343769766</v>
+      </c>
+      <c r="T66">
+        <v>2.891510863119793</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.02506350934494647</v>
+      </c>
+      <c r="W66">
+        <v>0.1790958333333333</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1253175467247323</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2142300170904491</v>
+      </c>
+      <c r="C67">
+        <v>-3.219292795842037</v>
+      </c>
+      <c r="D67">
+        <v>14.64070720415796</v>
+      </c>
+      <c r="E67">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F67">
+        <v>19.5</v>
+      </c>
+      <c r="G67">
+        <v>1.64</v>
+      </c>
+      <c r="H67">
+        <v>19.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2.18</v>
+      </c>
+      <c r="K67">
+        <v>1.738</v>
+      </c>
+      <c r="L67">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M67">
+        <v>3.58215</v>
+      </c>
+      <c r="N67">
+        <v>-3.14015</v>
+      </c>
+      <c r="O67">
+        <v>-0.6280300000000001</v>
+      </c>
+      <c r="P67">
+        <v>-2.51212</v>
+      </c>
+      <c r="Q67">
+        <v>-0.7741200000000001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2793476678774736</v>
+      </c>
+      <c r="T67">
+        <v>2.97412545920893</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02467791689348576</v>
+      </c>
+      <c r="W67">
+        <v>0.1791666666666667</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1233895844674288</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2159740170904491</v>
+      </c>
+      <c r="C68">
+        <v>-3.642837079364032</v>
+      </c>
+      <c r="D68">
+        <v>14.51716292063597</v>
+      </c>
+      <c r="E68">
+        <v>9.100000000000001</v>
+      </c>
+      <c r="F68">
+        <v>19.8</v>
+      </c>
+      <c r="G68">
+        <v>1.64</v>
+      </c>
+      <c r="H68">
+        <v>19.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2.18</v>
+      </c>
+      <c r="K68">
+        <v>1.738</v>
+      </c>
+      <c r="L68">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M68">
+        <v>3.63726</v>
+      </c>
+      <c r="N68">
+        <v>-3.19526</v>
+      </c>
+      <c r="O68">
+        <v>-0.6390520000000001</v>
+      </c>
+      <c r="P68">
+        <v>-2.556208</v>
+      </c>
+      <c r="Q68">
+        <v>-0.818208</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2872902463444581</v>
+      </c>
+      <c r="T68">
+        <v>3.061599737420957</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02430400906176627</v>
+      </c>
+      <c r="W68">
+        <v>0.1792353535353536</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1215200453088314</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2177180170904491</v>
+      </c>
+      <c r="C69">
+        <v>-4.064313775510701</v>
+      </c>
+      <c r="D69">
+        <v>14.3956862244893</v>
+      </c>
+      <c r="E69">
+        <v>9.400000000000002</v>
+      </c>
+      <c r="F69">
+        <v>20.1</v>
+      </c>
+      <c r="G69">
+        <v>1.64</v>
+      </c>
+      <c r="H69">
+        <v>19.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2.18</v>
+      </c>
+      <c r="K69">
+        <v>1.738</v>
+      </c>
+      <c r="L69">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M69">
+        <v>3.69237</v>
+      </c>
+      <c r="N69">
+        <v>-3.25037</v>
+      </c>
+      <c r="O69">
+        <v>-0.650074</v>
+      </c>
+      <c r="P69">
+        <v>-2.600296</v>
+      </c>
+      <c r="Q69">
+        <v>-0.862296</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2957141932033811</v>
+      </c>
+      <c r="T69">
+        <v>3.154375487039774</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02394126265785931</v>
+      </c>
+      <c r="W69">
+        <v>0.1793019900497513</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1197063132892966</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2194620170904491</v>
+      </c>
+      <c r="C70">
+        <v>-4.483774357032932</v>
+      </c>
+      <c r="D70">
+        <v>14.27622564296707</v>
+      </c>
+      <c r="E70">
+        <v>9.700000000000003</v>
+      </c>
+      <c r="F70">
+        <v>20.4</v>
+      </c>
+      <c r="G70">
+        <v>1.64</v>
+      </c>
+      <c r="H70">
+        <v>19.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2.18</v>
+      </c>
+      <c r="K70">
+        <v>1.738</v>
+      </c>
+      <c r="L70">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M70">
+        <v>3.74748</v>
+      </c>
+      <c r="N70">
+        <v>-3.30548</v>
+      </c>
+      <c r="O70">
+        <v>-0.6610960000000001</v>
+      </c>
+      <c r="P70">
+        <v>-2.644384</v>
+      </c>
+      <c r="Q70">
+        <v>-0.9063839999999999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3046646367409868</v>
+      </c>
+      <c r="T70">
+        <v>3.252949721009768</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02358918526583197</v>
+      </c>
+      <c r="W70">
+        <v>0.1793666666666667</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1179459263291599</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2212060170904491</v>
+      </c>
+      <c r="C71">
+        <v>-4.901268602185523</v>
+      </c>
+      <c r="D71">
+        <v>14.15873139781448</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>20.7</v>
+      </c>
+      <c r="G71">
+        <v>1.64</v>
+      </c>
+      <c r="H71">
+        <v>19.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2.18</v>
+      </c>
+      <c r="K71">
+        <v>1.738</v>
+      </c>
+      <c r="L71">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M71">
+        <v>3.80259</v>
+      </c>
+      <c r="N71">
+        <v>-3.36059</v>
+      </c>
+      <c r="O71">
+        <v>-0.6721180000000001</v>
+      </c>
+      <c r="P71">
+        <v>-2.688472</v>
+      </c>
+      <c r="Q71">
+        <v>-0.9504719999999998</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3141925282487605</v>
+      </c>
+      <c r="T71">
+        <v>3.357883582977824</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02324731301560252</v>
+      </c>
+      <c r="W71">
+        <v>0.1794294685990338</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1162365650780126</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2229500170904491</v>
+      </c>
+      <c r="C72">
+        <v>-5.3168446638871</v>
+      </c>
+      <c r="D72">
+        <v>14.0431553361129</v>
+      </c>
+      <c r="E72">
+        <v>10.3</v>
+      </c>
+      <c r="F72">
+        <v>21</v>
+      </c>
+      <c r="G72">
+        <v>1.64</v>
+      </c>
+      <c r="H72">
+        <v>19.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2.18</v>
+      </c>
+      <c r="K72">
+        <v>1.738</v>
+      </c>
+      <c r="L72">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M72">
+        <v>3.857700000000001</v>
+      </c>
+      <c r="N72">
+        <v>-3.415700000000001</v>
+      </c>
+      <c r="O72">
+        <v>-0.6831400000000003</v>
+      </c>
+      <c r="P72">
+        <v>-2.732560000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-0.9945600000000006</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3243556125237192</v>
+      </c>
+      <c r="T72">
+        <v>3.469813035743752</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02291520854395105</v>
+      </c>
+      <c r="W72">
+        <v>0.1794904761904762</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1145760427197552</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2246940170904491</v>
+      </c>
+      <c r="C73">
+        <v>-5.730549135520103</v>
+      </c>
+      <c r="D73">
+        <v>13.92945086447989</v>
+      </c>
+      <c r="E73">
+        <v>10.6</v>
+      </c>
+      <c r="F73">
+        <v>21.3</v>
+      </c>
+      <c r="G73">
+        <v>1.64</v>
+      </c>
+      <c r="H73">
+        <v>19.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2.18</v>
+      </c>
+      <c r="K73">
+        <v>1.738</v>
+      </c>
+      <c r="L73">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M73">
+        <v>3.912809999999999</v>
+      </c>
+      <c r="N73">
+        <v>-3.470809999999999</v>
+      </c>
+      <c r="O73">
+        <v>-0.6941619999999999</v>
+      </c>
+      <c r="P73">
+        <v>-2.776647999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-1.038647999999999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3352195991624681</v>
+      </c>
+      <c r="T73">
+        <v>3.589461761114225</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02259245912783907</v>
+      </c>
+      <c r="W73">
+        <v>0.179549765258216</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1129622956391955</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2264380170904491</v>
+      </c>
+      <c r="C74">
+        <v>-6.142427113559911</v>
+      </c>
+      <c r="D74">
+        <v>13.81757288644009</v>
+      </c>
+      <c r="E74">
+        <v>10.9</v>
+      </c>
+      <c r="F74">
+        <v>21.6</v>
+      </c>
+      <c r="G74">
+        <v>1.64</v>
+      </c>
+      <c r="H74">
+        <v>19.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2.18</v>
+      </c>
+      <c r="K74">
+        <v>1.738</v>
+      </c>
+      <c r="L74">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M74">
+        <v>3.967919999999999</v>
+      </c>
+      <c r="N74">
+        <v>-3.525919999999999</v>
+      </c>
+      <c r="O74">
+        <v>-0.7051839999999999</v>
+      </c>
+      <c r="P74">
+        <v>-2.820735999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-1.082735999999999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3468595848468419</v>
+      </c>
+      <c r="T74">
+        <v>3.717656824011162</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02227867497328576</v>
+      </c>
+      <c r="W74">
+        <v>0.1796074074074074</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1113933748664289</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2281820170904491</v>
+      </c>
+      <c r="C75">
+        <v>-6.552522257209805</v>
+      </c>
+      <c r="D75">
+        <v>13.70747774279019</v>
+      </c>
+      <c r="E75">
+        <v>11.2</v>
+      </c>
+      <c r="F75">
+        <v>21.9</v>
+      </c>
+      <c r="G75">
+        <v>1.64</v>
+      </c>
+      <c r="H75">
+        <v>19.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2.18</v>
+      </c>
+      <c r="K75">
+        <v>1.738</v>
+      </c>
+      <c r="L75">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M75">
+        <v>4.023029999999999</v>
+      </c>
+      <c r="N75">
+        <v>-3.581029999999999</v>
+      </c>
+      <c r="O75">
+        <v>-0.7162059999999999</v>
+      </c>
+      <c r="P75">
+        <v>-2.864824</v>
+      </c>
+      <c r="Q75">
+        <v>-1.126823999999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3593617916930213</v>
+      </c>
+      <c r="T75">
+        <v>3.855347817493057</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02197348764488458</v>
+      </c>
+      <c r="W75">
+        <v>0.1796634703196347</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1098674382244229</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2299260170904491</v>
+      </c>
+      <c r="C76">
+        <v>-6.960876845207583</v>
+      </c>
+      <c r="D76">
+        <v>13.59912315479242</v>
+      </c>
+      <c r="E76">
+        <v>11.5</v>
+      </c>
+      <c r="F76">
+        <v>22.2</v>
+      </c>
+      <c r="G76">
+        <v>1.64</v>
+      </c>
+      <c r="H76">
+        <v>19.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2.18</v>
+      </c>
+      <c r="K76">
+        <v>1.738</v>
+      </c>
+      <c r="L76">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M76">
+        <v>4.07814</v>
+      </c>
+      <c r="N76">
+        <v>-3.63614</v>
+      </c>
+      <c r="O76">
+        <v>-0.7272280000000001</v>
+      </c>
+      <c r="P76">
+        <v>-2.908912</v>
+      </c>
+      <c r="Q76">
+        <v>-1.170912</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3728257067581375</v>
+      </c>
+      <c r="T76">
+        <v>4.003630425858175</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0216765486226564</v>
+      </c>
+      <c r="W76">
+        <v>0.179718018018018</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1083827431132821</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2316700170904491</v>
+      </c>
+      <c r="C77">
+        <v>-7.367531829959022</v>
+      </c>
+      <c r="D77">
+        <v>13.49246817004098</v>
+      </c>
+      <c r="E77">
+        <v>11.8</v>
+      </c>
+      <c r="F77">
+        <v>22.5</v>
+      </c>
+      <c r="G77">
+        <v>1.64</v>
+      </c>
+      <c r="H77">
+        <v>19.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>2.18</v>
+      </c>
+      <c r="K77">
+        <v>1.738</v>
+      </c>
+      <c r="L77">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M77">
+        <v>4.13325</v>
+      </c>
+      <c r="N77">
+        <v>-3.69125</v>
+      </c>
+      <c r="O77">
+        <v>-0.7382500000000001</v>
+      </c>
+      <c r="P77">
+        <v>-2.953</v>
+      </c>
+      <c r="Q77">
+        <v>-1.215</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3873667350284631</v>
+      </c>
+      <c r="T77">
+        <v>4.163775642892502</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02138752797435432</v>
+      </c>
+      <c r="W77">
+        <v>0.1797711111111111</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1069376398717716</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2334140170904491</v>
+      </c>
+      <c r="C78">
+        <v>-7.772526889143801</v>
+      </c>
+      <c r="D78">
+        <v>13.3874731108562</v>
+      </c>
+      <c r="E78">
+        <v>12.1</v>
+      </c>
+      <c r="F78">
+        <v>22.8</v>
+      </c>
+      <c r="G78">
+        <v>1.64</v>
+      </c>
+      <c r="H78">
+        <v>19.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2.18</v>
+      </c>
+      <c r="K78">
+        <v>1.738</v>
+      </c>
+      <c r="L78">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M78">
+        <v>4.18836</v>
+      </c>
+      <c r="N78">
+        <v>-3.74636</v>
+      </c>
+      <c r="O78">
+        <v>-0.749272</v>
+      </c>
+      <c r="P78">
+        <v>-2.997088</v>
+      </c>
+      <c r="Q78">
+        <v>-1.259088</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.403119515654649</v>
+      </c>
+      <c r="T78">
+        <v>4.337266294679689</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.0211061131325865</v>
+      </c>
+      <c r="W78">
+        <v>0.1798228070175439</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1055305656629325</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2351580170904491</v>
+      </c>
+      <c r="C79">
+        <v>-8.175900474930591</v>
+      </c>
+      <c r="D79">
+        <v>13.28409952506941</v>
+      </c>
+      <c r="E79">
+        <v>12.4</v>
+      </c>
+      <c r="F79">
+        <v>23.1</v>
+      </c>
+      <c r="G79">
+        <v>1.64</v>
+      </c>
+      <c r="H79">
+        <v>19.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2.18</v>
+      </c>
+      <c r="K79">
+        <v>1.738</v>
+      </c>
+      <c r="L79">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M79">
+        <v>4.24347</v>
+      </c>
+      <c r="N79">
+        <v>-3.80147</v>
+      </c>
+      <c r="O79">
+        <v>-0.760294</v>
+      </c>
+      <c r="P79">
+        <v>-3.041176</v>
+      </c>
+      <c r="Q79">
+        <v>-1.303176</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4202421032918077</v>
+      </c>
+      <c r="T79">
+        <v>4.525843090100546</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02083200776722823</v>
+      </c>
+      <c r="W79">
+        <v>0.1798731601731602</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1041600388361412</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2369020170904491</v>
+      </c>
+      <c r="C80">
+        <v>-8.577689860929377</v>
+      </c>
+      <c r="D80">
+        <v>13.18231013907062</v>
+      </c>
+      <c r="E80">
+        <v>12.7</v>
+      </c>
+      <c r="F80">
+        <v>23.4</v>
+      </c>
+      <c r="G80">
+        <v>1.64</v>
+      </c>
+      <c r="H80">
+        <v>19.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2.18</v>
+      </c>
+      <c r="K80">
+        <v>1.738</v>
+      </c>
+      <c r="L80">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M80">
+        <v>4.29858</v>
+      </c>
+      <c r="N80">
+        <v>-3.85658</v>
+      </c>
+      <c r="O80">
+        <v>-0.7713160000000001</v>
+      </c>
+      <c r="P80">
+        <v>-3.085264</v>
+      </c>
+      <c r="Q80">
+        <v>-1.347264</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4389212898050717</v>
+      </c>
+      <c r="T80">
+        <v>4.731563230559662</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02056493074457146</v>
+      </c>
+      <c r="W80">
+        <v>0.1799222222222222</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1028246537228573</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2386460170904491</v>
+      </c>
+      <c r="C81">
+        <v>-8.977931187001641</v>
+      </c>
+      <c r="D81">
+        <v>13.08206881299836</v>
+      </c>
+      <c r="E81">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>23.7</v>
+      </c>
+      <c r="G81">
+        <v>1.64</v>
+      </c>
+      <c r="H81">
+        <v>19.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2.18</v>
+      </c>
+      <c r="K81">
+        <v>1.738</v>
+      </c>
+      <c r="L81">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M81">
+        <v>4.35369</v>
+      </c>
+      <c r="N81">
+        <v>-3.91169</v>
+      </c>
+      <c r="O81">
+        <v>-0.7823380000000001</v>
+      </c>
+      <c r="P81">
+        <v>-3.129352</v>
+      </c>
+      <c r="Q81">
+        <v>-1.391352</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.459379446462456</v>
+      </c>
+      <c r="T81">
+        <v>4.956875765348217</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02030461516552625</v>
+      </c>
+      <c r="W81">
+        <v>0.1799700421940928</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1015230758276313</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.240390017090449</v>
+      </c>
+      <c r="C82">
+        <v>-9.376659502041484</v>
+      </c>
+      <c r="D82">
+        <v>12.98334049795852</v>
+      </c>
+      <c r="E82">
+        <v>13.3</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82">
+        <v>1.64</v>
+      </c>
+      <c r="H82">
+        <v>19.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2.18</v>
+      </c>
+      <c r="K82">
+        <v>1.738</v>
+      </c>
+      <c r="L82">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M82">
+        <v>4.4088</v>
+      </c>
+      <c r="N82">
+        <v>-3.9668</v>
+      </c>
+      <c r="O82">
+        <v>-0.7933600000000001</v>
+      </c>
+      <c r="P82">
+        <v>-3.17344</v>
+      </c>
+      <c r="Q82">
+        <v>-1.43544</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4818834187855788</v>
+      </c>
+      <c r="T82">
+        <v>5.204719553615627</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02005080747595717</v>
+      </c>
+      <c r="W82">
+        <v>0.1800166666666667</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1002540373797859</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2421340170904491</v>
+      </c>
+      <c r="C83">
+        <v>-9.773908804834059</v>
+      </c>
+      <c r="D83">
+        <v>12.88609119516594</v>
+      </c>
+      <c r="E83">
+        <v>13.6</v>
+      </c>
+      <c r="F83">
+        <v>24.3</v>
+      </c>
+      <c r="G83">
+        <v>1.64</v>
+      </c>
+      <c r="H83">
+        <v>19.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2.18</v>
+      </c>
+      <c r="K83">
+        <v>1.738</v>
+      </c>
+      <c r="L83">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M83">
+        <v>4.46391</v>
+      </c>
+      <c r="N83">
+        <v>-4.02191</v>
+      </c>
+      <c r="O83">
+        <v>-0.804382</v>
+      </c>
+      <c r="P83">
+        <v>-3.217528</v>
+      </c>
+      <c r="Q83">
+        <v>-1.479528</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.5067562303006093</v>
+      </c>
+      <c r="T83">
+        <v>5.478652161700661</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01980326664292066</v>
+      </c>
+      <c r="W83">
+        <v>0.1800621399176955</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.09901633321460335</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2438780170904491</v>
+      </c>
+      <c r="C84">
+        <v>-10.16971208309139</v>
+      </c>
+      <c r="D84">
+        <v>12.79028791690861</v>
+      </c>
+      <c r="E84">
+        <v>13.9</v>
+      </c>
+      <c r="F84">
+        <v>24.6</v>
+      </c>
+      <c r="G84">
+        <v>1.64</v>
+      </c>
+      <c r="H84">
+        <v>19.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2.18</v>
+      </c>
+      <c r="K84">
+        <v>1.738</v>
+      </c>
+      <c r="L84">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M84">
+        <v>4.51902</v>
+      </c>
+      <c r="N84">
+        <v>-4.07702</v>
+      </c>
+      <c r="O84">
+        <v>-0.815404</v>
+      </c>
+      <c r="P84">
+        <v>-3.261616</v>
+      </c>
+      <c r="Q84">
+        <v>-1.523616</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.5343926875395322</v>
+      </c>
+      <c r="T84">
+        <v>5.783021726239587</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.01956176339117773</v>
+      </c>
+      <c r="W84">
+        <v>0.1801065040650406</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.09780881695588872</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2456220170904491</v>
+      </c>
+      <c r="C85">
+        <v>-10.5641013507598</v>
+      </c>
+      <c r="D85">
+        <v>12.6958986492402</v>
+      </c>
+      <c r="E85">
+        <v>14.2</v>
+      </c>
+      <c r="F85">
+        <v>24.9</v>
+      </c>
+      <c r="G85">
+        <v>1.64</v>
+      </c>
+      <c r="H85">
+        <v>19.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2.18</v>
+      </c>
+      <c r="K85">
+        <v>1.738</v>
+      </c>
+      <c r="L85">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M85">
+        <v>4.57413</v>
+      </c>
+      <c r="N85">
+        <v>-4.13213</v>
+      </c>
+      <c r="O85">
+        <v>-0.8264260000000001</v>
+      </c>
+      <c r="P85">
+        <v>-3.305704</v>
+      </c>
+      <c r="Q85">
+        <v>-1.567704</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5652804926889164</v>
+      </c>
+      <c r="T85">
+        <v>6.123199474841917</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01932607949489848</v>
+      </c>
+      <c r="W85">
+        <v>0.1801497991967871</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.09663039747449242</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2473660170904491</v>
+      </c>
+      <c r="C86">
+        <v>-10.95710768368745</v>
+      </c>
+      <c r="D86">
+        <v>12.60289231631255</v>
+      </c>
+      <c r="E86">
+        <v>14.5</v>
+      </c>
+      <c r="F86">
+        <v>25.2</v>
+      </c>
+      <c r="G86">
+        <v>1.64</v>
+      </c>
+      <c r="H86">
+        <v>19.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2.18</v>
+      </c>
+      <c r="K86">
+        <v>1.738</v>
+      </c>
+      <c r="L86">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M86">
+        <v>4.62924</v>
+      </c>
+      <c r="N86">
+        <v>-4.18724</v>
+      </c>
+      <c r="O86">
+        <v>-0.8374480000000001</v>
+      </c>
+      <c r="P86">
+        <v>-3.349792</v>
+      </c>
+      <c r="Q86">
+        <v>-1.611792</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.6000292734819734</v>
+      </c>
+      <c r="T86">
+        <v>6.505899442019533</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01909600711995921</v>
+      </c>
+      <c r="W86">
+        <v>0.1801920634920635</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.09548003559979612</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2491100170904491</v>
+      </c>
+      <c r="C87">
+        <v>-11.3487612537356</v>
+      </c>
+      <c r="D87">
+        <v>12.5112387462644</v>
+      </c>
+      <c r="E87">
+        <v>14.8</v>
+      </c>
+      <c r="F87">
+        <v>25.5</v>
+      </c>
+      <c r="G87">
+        <v>1.64</v>
+      </c>
+      <c r="H87">
+        <v>19.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2.18</v>
+      </c>
+      <c r="K87">
+        <v>1.738</v>
+      </c>
+      <c r="L87">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M87">
+        <v>4.68435</v>
+      </c>
+      <c r="N87">
+        <v>-4.24235</v>
+      </c>
+      <c r="O87">
+        <v>-0.8484700000000001</v>
+      </c>
+      <c r="P87">
+        <v>-3.39388</v>
+      </c>
+      <c r="Q87">
+        <v>-1.65588</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6394112250474383</v>
+      </c>
+      <c r="T87">
+        <v>6.939626071487502</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01887134821266558</v>
+      </c>
+      <c r="W87">
+        <v>0.1802333333333333</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.09435674106332792</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2508540170904491</v>
+      </c>
+      <c r="C88">
+        <v>-11.73909136141217</v>
+      </c>
+      <c r="D88">
+        <v>12.42090863858783</v>
+      </c>
+      <c r="E88">
+        <v>15.1</v>
+      </c>
+      <c r="F88">
+        <v>25.8</v>
+      </c>
+      <c r="G88">
+        <v>1.64</v>
+      </c>
+      <c r="H88">
+        <v>19.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2.18</v>
+      </c>
+      <c r="K88">
+        <v>1.738</v>
+      </c>
+      <c r="L88">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M88">
+        <v>4.73946</v>
+      </c>
+      <c r="N88">
+        <v>-4.29746</v>
+      </c>
+      <c r="O88">
+        <v>-0.859492</v>
+      </c>
+      <c r="P88">
+        <v>-3.437968</v>
+      </c>
+      <c r="Q88">
+        <v>-1.699968</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6844191696936839</v>
+      </c>
+      <c r="T88">
+        <v>7.435313648022324</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.01865191393112295</v>
+      </c>
+      <c r="W88">
+        <v>0.1802736434108527</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.09325956965561477</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2525980170904491</v>
+      </c>
+      <c r="C89">
+        <v>-12.12812646710168</v>
+      </c>
+      <c r="D89">
+        <v>12.33187353289832</v>
+      </c>
+      <c r="E89">
+        <v>15.4</v>
+      </c>
+      <c r="F89">
+        <v>26.1</v>
+      </c>
+      <c r="G89">
+        <v>1.64</v>
+      </c>
+      <c r="H89">
+        <v>19.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2.18</v>
+      </c>
+      <c r="K89">
+        <v>1.738</v>
+      </c>
+      <c r="L89">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M89">
+        <v>4.79457</v>
+      </c>
+      <c r="N89">
+        <v>-4.35257</v>
+      </c>
+      <c r="O89">
+        <v>-0.870514</v>
+      </c>
+      <c r="P89">
+        <v>-3.482056</v>
+      </c>
+      <c r="Q89">
+        <v>-1.744056</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.7363514135162751</v>
+      </c>
+      <c r="T89">
+        <v>8.007260851716349</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01843752411582269</v>
+      </c>
+      <c r="W89">
+        <v>0.1803130268199234</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.09218762057911345</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2543420170904491</v>
+      </c>
+      <c r="C90">
+        <v>-12.51589422096177</v>
+      </c>
+      <c r="D90">
+        <v>12.24410577903823</v>
+      </c>
+      <c r="E90">
+        <v>15.7</v>
+      </c>
+      <c r="F90">
+        <v>26.4</v>
+      </c>
+      <c r="G90">
+        <v>1.64</v>
+      </c>
+      <c r="H90">
+        <v>19.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2.18</v>
+      </c>
+      <c r="K90">
+        <v>1.738</v>
+      </c>
+      <c r="L90">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M90">
+        <v>4.84968</v>
+      </c>
+      <c r="N90">
+        <v>-4.40768</v>
+      </c>
+      <c r="O90">
+        <v>-0.8815360000000001</v>
+      </c>
+      <c r="P90">
+        <v>-3.526144</v>
+      </c>
+      <c r="Q90">
+        <v>-1.788144</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.796939031309298</v>
+      </c>
+      <c r="T90">
+        <v>8.674532589359378</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0182280067963247</v>
+      </c>
+      <c r="W90">
+        <v>0.1803515151515152</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.09114003398162351</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2560860170904491</v>
+      </c>
+      <c r="C91">
+        <v>-12.90242149155189</v>
+      </c>
+      <c r="D91">
+        <v>12.15757850844811</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>26.7</v>
+      </c>
+      <c r="G91">
+        <v>1.64</v>
+      </c>
+      <c r="H91">
+        <v>19.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2.18</v>
+      </c>
+      <c r="K91">
+        <v>1.738</v>
+      </c>
+      <c r="L91">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M91">
+        <v>4.90479</v>
+      </c>
+      <c r="N91">
+        <v>-4.46279</v>
+      </c>
+      <c r="O91">
+        <v>-0.8925580000000001</v>
+      </c>
+      <c r="P91">
+        <v>-3.570232</v>
+      </c>
+      <c r="Q91">
+        <v>-1.832232</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.8685425796101434</v>
+      </c>
+      <c r="T91">
+        <v>9.463126461119323</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01802319773119746</v>
+      </c>
+      <c r="W91">
+        <v>0.180389138576779</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.09011598865598736</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2578300170904491</v>
+      </c>
+      <c r="C92">
+        <v>-13.2877343932567</v>
+      </c>
+      <c r="D92">
+        <v>12.0722656067433</v>
+      </c>
+      <c r="E92">
+        <v>16.3</v>
+      </c>
+      <c r="F92">
+        <v>27</v>
+      </c>
+      <c r="G92">
+        <v>1.64</v>
+      </c>
+      <c r="H92">
+        <v>19.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>2.18</v>
+      </c>
+      <c r="K92">
+        <v>1.738</v>
+      </c>
+      <c r="L92">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M92">
+        <v>4.9599</v>
+      </c>
+      <c r="N92">
+        <v>-4.5179</v>
+      </c>
+      <c r="O92">
+        <v>-0.90358</v>
+      </c>
+      <c r="P92">
+        <v>-3.61432</v>
+      </c>
+      <c r="Q92">
+        <v>-1.87632</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.9544668375711579</v>
+      </c>
+      <c r="T92">
+        <v>10.40943910723126</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.0178229399786286</v>
+      </c>
+      <c r="W92">
+        <v>0.1804259259259259</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.08911469989314302</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2595740170904491</v>
+      </c>
+      <c r="C93">
+        <v>-13.67185831256292</v>
+      </c>
+      <c r="D93">
+        <v>11.98814168743708</v>
+      </c>
+      <c r="E93">
+        <v>16.6</v>
+      </c>
+      <c r="F93">
+        <v>27.3</v>
+      </c>
+      <c r="G93">
+        <v>1.64</v>
+      </c>
+      <c r="H93">
+        <v>19.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2.18</v>
+      </c>
+      <c r="K93">
+        <v>1.738</v>
+      </c>
+      <c r="L93">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M93">
+        <v>5.01501</v>
+      </c>
+      <c r="N93">
+        <v>-4.57301</v>
+      </c>
+      <c r="O93">
+        <v>-0.914602</v>
+      </c>
+      <c r="P93">
+        <v>-3.658408</v>
+      </c>
+      <c r="Q93">
+        <v>-1.920408</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.059485375079064</v>
+      </c>
+      <c r="T93">
+        <v>11.56604345247917</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01762708349534697</v>
+      </c>
+      <c r="W93">
+        <v>0.1804619047619048</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.08813541747673492</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2613180170904491</v>
+      </c>
+      <c r="C94">
+        <v>-14.05481793324507</v>
+      </c>
+      <c r="D94">
+        <v>11.90518206675493</v>
+      </c>
+      <c r="E94">
+        <v>16.9</v>
+      </c>
+      <c r="F94">
+        <v>27.6</v>
+      </c>
+      <c r="G94">
+        <v>1.64</v>
+      </c>
+      <c r="H94">
+        <v>19.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>2.18</v>
+      </c>
+      <c r="K94">
+        <v>1.738</v>
+      </c>
+      <c r="L94">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M94">
+        <v>5.07012</v>
+      </c>
+      <c r="N94">
+        <v>-4.62812</v>
+      </c>
+      <c r="O94">
+        <v>-0.925624</v>
+      </c>
+      <c r="P94">
+        <v>-3.702496</v>
+      </c>
+      <c r="Q94">
+        <v>-1.964496</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.190758546963948</v>
+      </c>
+      <c r="T94">
+        <v>13.01179888403908</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01743548476170189</v>
+      </c>
+      <c r="W94">
+        <v>0.1804971014492754</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.08717742380850946</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2630620170904491</v>
+      </c>
+      <c r="C95">
+        <v>-14.43663726051271</v>
+      </c>
+      <c r="D95">
+        <v>11.82336273948729</v>
+      </c>
+      <c r="E95">
+        <v>17.2</v>
+      </c>
+      <c r="F95">
+        <v>27.9</v>
+      </c>
+      <c r="G95">
+        <v>1.64</v>
+      </c>
+      <c r="H95">
+        <v>19.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2.18</v>
+      </c>
+      <c r="K95">
+        <v>1.738</v>
+      </c>
+      <c r="L95">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M95">
+        <v>5.12523</v>
+      </c>
+      <c r="N95">
+        <v>-4.68323</v>
+      </c>
+      <c r="O95">
+        <v>-0.9366460000000001</v>
+      </c>
+      <c r="P95">
+        <v>-3.746584</v>
+      </c>
+      <c r="Q95">
+        <v>-2.008584</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.359538339387369</v>
+      </c>
+      <c r="T95">
+        <v>14.87062729604466</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.0172480064309309</v>
+      </c>
+      <c r="W95">
+        <v>0.180531541218638</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.08624003215465459</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2648060170904491</v>
+      </c>
+      <c r="C96">
+        <v>-14.81733964416877</v>
+      </c>
+      <c r="D96">
+        <v>11.74266035583123</v>
+      </c>
+      <c r="E96">
+        <v>17.5</v>
+      </c>
+      <c r="F96">
+        <v>28.2</v>
+      </c>
+      <c r="G96">
+        <v>1.64</v>
+      </c>
+      <c r="H96">
+        <v>19.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2.18</v>
+      </c>
+      <c r="K96">
+        <v>1.738</v>
+      </c>
+      <c r="L96">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M96">
+        <v>5.18034</v>
+      </c>
+      <c r="N96">
+        <v>-4.73834</v>
+      </c>
+      <c r="O96">
+        <v>-0.9476680000000001</v>
+      </c>
+      <c r="P96">
+        <v>-3.790672</v>
+      </c>
+      <c r="Q96">
+        <v>-2.052671999999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.584578062618597</v>
+      </c>
+      <c r="T96">
+        <v>17.34906517871877</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01706451700081462</v>
+      </c>
+      <c r="W96">
+        <v>0.1805652482269504</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.08532258500407308</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2665500170904491</v>
+      </c>
+      <c r="C97">
+        <v>-15.19694780082584</v>
+      </c>
+      <c r="D97">
+        <v>11.66305219917416</v>
+      </c>
+      <c r="E97">
+        <v>17.8</v>
+      </c>
+      <c r="F97">
+        <v>28.5</v>
+      </c>
+      <c r="G97">
+        <v>1.64</v>
+      </c>
+      <c r="H97">
+        <v>19.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2.18</v>
+      </c>
+      <c r="K97">
+        <v>1.738</v>
+      </c>
+      <c r="L97">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M97">
+        <v>5.235450000000001</v>
+      </c>
+      <c r="N97">
+        <v>-4.793450000000001</v>
+      </c>
+      <c r="O97">
+        <v>-0.9586900000000003</v>
+      </c>
+      <c r="P97">
+        <v>-3.834760000000001</v>
+      </c>
+      <c r="Q97">
+        <v>-2.096760000000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.899633675142318</v>
+      </c>
+      <c r="T97">
+        <v>20.81887821446254</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.0168848905060692</v>
+      </c>
+      <c r="W97">
+        <v>0.1805982456140351</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.08442445253034603</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2682940170904491</v>
+      </c>
+      <c r="C98">
+        <v>-15.57548383522487</v>
+      </c>
+      <c r="D98">
+        <v>11.58451616477512</v>
+      </c>
+      <c r="E98">
+        <v>18.1</v>
+      </c>
+      <c r="F98">
+        <v>28.8</v>
+      </c>
+      <c r="G98">
+        <v>1.64</v>
+      </c>
+      <c r="H98">
+        <v>19.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2.18</v>
+      </c>
+      <c r="K98">
+        <v>1.738</v>
+      </c>
+      <c r="L98">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M98">
+        <v>5.290559999999999</v>
+      </c>
+      <c r="N98">
+        <v>-4.848559999999999</v>
+      </c>
+      <c r="O98">
+        <v>-0.9697119999999999</v>
+      </c>
+      <c r="P98">
+        <v>-3.878847999999999</v>
+      </c>
+      <c r="Q98">
+        <v>-2.140847999999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.372217093927892</v>
+      </c>
+      <c r="T98">
+        <v>26.02359776807811</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01670900622996432</v>
+      </c>
+      <c r="W98">
+        <v>0.1806305555555556</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.08354503114982159</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2700380170904491</v>
+      </c>
+      <c r="C99">
+        <v>-15.95296926069836</v>
+      </c>
+      <c r="D99">
+        <v>11.50703073930164</v>
+      </c>
+      <c r="E99">
+        <v>18.4</v>
+      </c>
+      <c r="F99">
+        <v>29.1</v>
+      </c>
+      <c r="G99">
+        <v>1.64</v>
+      </c>
+      <c r="H99">
+        <v>19.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2.18</v>
+      </c>
+      <c r="K99">
+        <v>1.738</v>
+      </c>
+      <c r="L99">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M99">
+        <v>5.345669999999999</v>
+      </c>
+      <c r="N99">
+        <v>-4.903669999999999</v>
+      </c>
+      <c r="O99">
+        <v>-0.9807339999999999</v>
+      </c>
+      <c r="P99">
+        <v>-3.922935999999999</v>
+      </c>
+      <c r="Q99">
+        <v>-2.184935999999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>3.15985612523719</v>
+      </c>
+      <c r="T99">
+        <v>34.69813035743748</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01653674843377911</v>
+      </c>
+      <c r="W99">
+        <v>0.1806621993127148</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.08268374216889562</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2717820170904491</v>
+      </c>
+      <c r="C100">
+        <v>-16.32942501881769</v>
+      </c>
+      <c r="D100">
+        <v>11.4305749811823</v>
+      </c>
+      <c r="E100">
+        <v>18.7</v>
+      </c>
+      <c r="F100">
+        <v>29.4</v>
+      </c>
+      <c r="G100">
+        <v>1.64</v>
+      </c>
+      <c r="H100">
+        <v>19.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2.18</v>
+      </c>
+      <c r="K100">
+        <v>1.738</v>
+      </c>
+      <c r="L100">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M100">
+        <v>5.40078</v>
+      </c>
+      <c r="N100">
+        <v>-4.95878</v>
+      </c>
+      <c r="O100">
+        <v>-0.9917560000000001</v>
+      </c>
+      <c r="P100">
+        <v>-3.967024</v>
+      </c>
+      <c r="Q100">
+        <v>-2.229024</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.735134187855784</v>
+      </c>
+      <c r="T100">
+        <v>52.04719553615622</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01636800610282218</v>
+      </c>
+      <c r="W100">
+        <v>0.1806931972789116</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.08184003051411093</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2735260170904491</v>
+      </c>
+      <c r="C101">
+        <v>-16.70487149826244</v>
+      </c>
+      <c r="D101">
+        <v>11.35512850173756</v>
+      </c>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>29.7</v>
+      </c>
+      <c r="G101">
+        <v>1.64</v>
+      </c>
+      <c r="H101">
+        <v>19.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2.18</v>
+      </c>
+      <c r="K101">
+        <v>1.738</v>
+      </c>
+      <c r="L101">
+        <v>0.4419999999999999</v>
+      </c>
+      <c r="M101">
+        <v>5.45589</v>
+      </c>
+      <c r="N101">
+        <v>-5.01389</v>
+      </c>
+      <c r="O101">
+        <v>-1.002778</v>
+      </c>
+      <c r="P101">
+        <v>-4.011112</v>
+      </c>
+      <c r="Q101">
+        <v>-2.273111999999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>9.460968375711568</v>
+      </c>
+      <c r="T101">
+        <v>104.0943910723124</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01620267270784418</v>
+      </c>
+      <c r="W101">
+        <v>0.180723569023569</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.08101336353922095</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
